--- a/ML_PL_new/realbet.xlsx
+++ b/ML_PL_new/realbet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\..Data\TSDP\ML_PL_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\.Data files\TSDP\ML_PL_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98479FBF-F47F-4138-8824-A19729EF1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18135" windowHeight="9630"/>
+    <workbookView xWindow="12040" yWindow="0" windowWidth="7160" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,21 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -41,9 +53,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,7 +90,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -97,7 +109,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -152,6 +164,9 @@
           <cell r="F2">
             <v>3.642425136028915E-3</v>
           </cell>
+          <cell r="G2"/>
+          <cell r="H2"/>
+          <cell r="I2"/>
         </row>
         <row r="3">
           <cell r="A3">
@@ -172,6 +187,9 @@
           <cell r="F3">
             <v>0.97888123793466542</v>
           </cell>
+          <cell r="G3"/>
+          <cell r="H3"/>
+          <cell r="I3"/>
         </row>
         <row r="4">
           <cell r="A4">
@@ -192,6 +210,9 @@
           <cell r="F4">
             <v>0.44396370019895293</v>
           </cell>
+          <cell r="G4"/>
+          <cell r="H4"/>
+          <cell r="I4"/>
         </row>
         <row r="5">
           <cell r="A5">
@@ -212,6 +233,9 @@
           <cell r="F5">
             <v>0.56797399555889649</v>
           </cell>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
         </row>
         <row r="6">
           <cell r="A6">
@@ -232,6 +256,9 @@
           <cell r="F6">
             <v>9.1628839217753024E-6</v>
           </cell>
+          <cell r="G6"/>
+          <cell r="H6"/>
+          <cell r="I6"/>
         </row>
         <row r="7">
           <cell r="A7">
@@ -252,6 +279,9 @@
           <cell r="F7">
             <v>9.9800436393249786E-2</v>
           </cell>
+          <cell r="G7"/>
+          <cell r="H7"/>
+          <cell r="I7"/>
         </row>
         <row r="8">
           <cell r="A8">
@@ -272,6 +302,9 @@
           <cell r="F8">
             <v>0.40324588636038328</v>
           </cell>
+          <cell r="G8"/>
+          <cell r="H8"/>
+          <cell r="I8"/>
         </row>
         <row r="9">
           <cell r="A9">
@@ -292,6 +325,9 @@
           <cell r="F9">
             <v>0.76530435497472005</v>
           </cell>
+          <cell r="G9"/>
+          <cell r="H9"/>
+          <cell r="I9"/>
         </row>
         <row r="10">
           <cell r="A10">
@@ -312,6 +348,9 @@
           <cell r="F10">
             <v>0.61543189011336641</v>
           </cell>
+          <cell r="G10"/>
+          <cell r="H10"/>
+          <cell r="I10"/>
         </row>
         <row r="11">
           <cell r="A11">
@@ -332,6 +371,9 @@
           <cell r="F11">
             <v>0.1912972027462477</v>
           </cell>
+          <cell r="G11"/>
+          <cell r="H11"/>
+          <cell r="I11"/>
         </row>
         <row r="12">
           <cell r="A12">
@@ -352,6 +394,9 @@
           <cell r="F12">
             <v>1.3268122598007771E-5</v>
           </cell>
+          <cell r="G12"/>
+          <cell r="H12"/>
+          <cell r="I12"/>
         </row>
         <row r="13">
           <cell r="A13">
@@ -372,6 +417,9 @@
           <cell r="F13">
             <v>0.67257654517886267</v>
           </cell>
+          <cell r="G13"/>
+          <cell r="H13"/>
+          <cell r="I13"/>
         </row>
         <row r="14">
           <cell r="A14">
@@ -392,6 +440,9 @@
           <cell r="F14">
             <v>0.8577026404442839</v>
           </cell>
+          <cell r="G14"/>
+          <cell r="H14"/>
+          <cell r="I14"/>
         </row>
         <row r="15">
           <cell r="A15">
@@ -412,6 +463,9 @@
           <cell r="F15">
             <v>0.37453135474465421</v>
           </cell>
+          <cell r="G15"/>
+          <cell r="H15"/>
+          <cell r="I15"/>
         </row>
         <row r="16">
           <cell r="A16">
@@ -432,6 +486,9 @@
           <cell r="F16">
             <v>0.49495402506430042</v>
           </cell>
+          <cell r="G16"/>
+          <cell r="H16"/>
+          <cell r="I16"/>
         </row>
         <row r="17">
           <cell r="A17">
@@ -452,6 +509,9 @@
           <cell r="F17">
             <v>0.45187097049297897</v>
           </cell>
+          <cell r="G17"/>
+          <cell r="H17"/>
+          <cell r="I17"/>
         </row>
         <row r="18">
           <cell r="A18">
@@ -472,6 +532,9 @@
           <cell r="F18">
             <v>0.92108313347031101</v>
           </cell>
+          <cell r="G18"/>
+          <cell r="H18"/>
+          <cell r="I18"/>
         </row>
         <row r="19">
           <cell r="A19">
@@ -492,6 +555,9 @@
           <cell r="F19">
             <v>0.96488323591001945</v>
           </cell>
+          <cell r="G19"/>
+          <cell r="H19"/>
+          <cell r="I19"/>
         </row>
         <row r="20">
           <cell r="A20">
@@ -512,6 +578,9 @@
           <cell r="F20">
             <v>5.641831309097245E-2</v>
           </cell>
+          <cell r="G20"/>
+          <cell r="H20"/>
+          <cell r="I20"/>
         </row>
         <row r="21">
           <cell r="A21">
@@ -532,6 +601,9 @@
           <cell r="F21">
             <v>0.525800893792153</v>
           </cell>
+          <cell r="G21"/>
+          <cell r="H21"/>
+          <cell r="I21"/>
         </row>
         <row r="22">
           <cell r="A22">
@@ -552,6 +624,9 @@
           <cell r="F22">
             <v>0.72501201618367961</v>
           </cell>
+          <cell r="G22"/>
+          <cell r="H22"/>
+          <cell r="I22"/>
         </row>
         <row r="23">
           <cell r="A23">
@@ -572,6 +647,9 @@
           <cell r="F23">
             <v>0.62117894251031247</v>
           </cell>
+          <cell r="G23"/>
+          <cell r="H23"/>
+          <cell r="I23"/>
         </row>
         <row r="24">
           <cell r="A24">
@@ -592,6 +670,9 @@
           <cell r="F24">
             <v>0.42913028318277008</v>
           </cell>
+          <cell r="G24"/>
+          <cell r="H24"/>
+          <cell r="I24"/>
         </row>
         <row r="25">
           <cell r="A25">
@@ -612,6 +693,9 @@
           <cell r="F25">
             <v>0.99276296976950928</v>
           </cell>
+          <cell r="G25"/>
+          <cell r="H25"/>
+          <cell r="I25"/>
         </row>
         <row r="26">
           <cell r="A26">
@@ -632,6 +716,9 @@
           <cell r="F26">
             <v>0.62024221792854128</v>
           </cell>
+          <cell r="G26"/>
+          <cell r="H26"/>
+          <cell r="I26"/>
         </row>
         <row r="27">
           <cell r="A27">
@@ -652,6 +739,9 @@
           <cell r="F27">
             <v>0.9072014918342296</v>
           </cell>
+          <cell r="G27"/>
+          <cell r="H27"/>
+          <cell r="I27"/>
         </row>
         <row r="28">
           <cell r="A28">
@@ -672,6 +762,9 @@
           <cell r="F28">
             <v>0.77552082589659643</v>
           </cell>
+          <cell r="G28"/>
+          <cell r="H28"/>
+          <cell r="I28"/>
         </row>
         <row r="29">
           <cell r="A29">
@@ -692,6 +785,9 @@
           <cell r="F29">
             <v>0.76151137402271829</v>
           </cell>
+          <cell r="G29"/>
+          <cell r="H29"/>
+          <cell r="I29"/>
         </row>
         <row r="30">
           <cell r="A30">
@@ -712,6 +808,9 @@
           <cell r="F30">
             <v>2.7965535538507029E-3</v>
           </cell>
+          <cell r="G30"/>
+          <cell r="H30"/>
+          <cell r="I30"/>
         </row>
         <row r="31">
           <cell r="A31">
@@ -732,6 +831,9 @@
           <cell r="F31">
             <v>6.262615804121906E-6</v>
           </cell>
+          <cell r="G31"/>
+          <cell r="H31"/>
+          <cell r="I31"/>
         </row>
         <row r="32">
           <cell r="A32">
@@ -752,6 +854,9 @@
           <cell r="F32">
             <v>0.13833030848862349</v>
           </cell>
+          <cell r="G32"/>
+          <cell r="H32"/>
+          <cell r="I32"/>
         </row>
         <row r="33">
           <cell r="A33">
@@ -772,6 +877,9 @@
           <cell r="F33">
             <v>0.20649101789422791</v>
           </cell>
+          <cell r="G33"/>
+          <cell r="H33"/>
+          <cell r="I33"/>
         </row>
         <row r="34">
           <cell r="A34">
@@ -792,6 +900,9 @@
           <cell r="F34">
             <v>0.93768833013184671</v>
           </cell>
+          <cell r="G34"/>
+          <cell r="H34"/>
+          <cell r="I34"/>
         </row>
         <row r="35">
           <cell r="A35">
@@ -812,6 +923,9 @@
           <cell r="F35">
             <v>2.910130620569714E-2</v>
           </cell>
+          <cell r="G35"/>
+          <cell r="H35"/>
+          <cell r="I35"/>
         </row>
         <row r="36">
           <cell r="A36">
@@ -832,6 +946,9 @@
           <cell r="F36">
             <v>0.1911998296916983</v>
           </cell>
+          <cell r="G36"/>
+          <cell r="H36"/>
+          <cell r="I36"/>
         </row>
         <row r="37">
           <cell r="A37">
@@ -852,6 +969,9 @@
           <cell r="F37">
             <v>7.6243747927501576E-4</v>
           </cell>
+          <cell r="G37"/>
+          <cell r="H37"/>
+          <cell r="I37"/>
         </row>
         <row r="38">
           <cell r="A38">
@@ -872,6 +992,9 @@
           <cell r="F38">
             <v>0.74865809608493195</v>
           </cell>
+          <cell r="G38"/>
+          <cell r="H38"/>
+          <cell r="I38"/>
         </row>
         <row r="39">
           <cell r="A39">
@@ -892,6 +1015,9 @@
           <cell r="F39">
             <v>0.9602447563308778</v>
           </cell>
+          <cell r="G39"/>
+          <cell r="H39"/>
+          <cell r="I39"/>
         </row>
         <row r="40">
           <cell r="A40">
@@ -912,6 +1038,9 @@
           <cell r="F40">
             <v>0.1171893213968152</v>
           </cell>
+          <cell r="G40"/>
+          <cell r="H40"/>
+          <cell r="I40"/>
         </row>
         <row r="41">
           <cell r="A41">
@@ -932,6 +1061,9 @@
           <cell r="F41">
             <v>0.14722350240442231</v>
           </cell>
+          <cell r="G41"/>
+          <cell r="H41"/>
+          <cell r="I41"/>
         </row>
         <row r="42">
           <cell r="A42">
@@ -952,6 +1084,9 @@
           <cell r="F42">
             <v>1.9912312402871491E-2</v>
           </cell>
+          <cell r="G42"/>
+          <cell r="H42"/>
+          <cell r="I42"/>
         </row>
         <row r="43">
           <cell r="A43">
@@ -972,6 +1107,9 @@
           <cell r="F43">
             <v>0.2287465452161393</v>
           </cell>
+          <cell r="G43"/>
+          <cell r="H43"/>
+          <cell r="I43"/>
         </row>
         <row r="44">
           <cell r="A44">
@@ -992,6 +1130,9 @@
           <cell r="F44">
             <v>0.39588407257366909</v>
           </cell>
+          <cell r="G44"/>
+          <cell r="H44"/>
+          <cell r="I44"/>
         </row>
         <row r="45">
           <cell r="A45">
@@ -1012,6 +1153,9 @@
           <cell r="F45">
             <v>0.1158500194054858</v>
           </cell>
+          <cell r="G45"/>
+          <cell r="H45"/>
+          <cell r="I45"/>
         </row>
         <row r="46">
           <cell r="A46">
@@ -1032,6 +1176,9 @@
           <cell r="F46">
             <v>0.65333099644262316</v>
           </cell>
+          <cell r="G46"/>
+          <cell r="H46"/>
+          <cell r="I46"/>
         </row>
         <row r="47">
           <cell r="A47">
@@ -1052,6 +1199,9 @@
           <cell r="F47">
             <v>0.81929326663769764</v>
           </cell>
+          <cell r="G47"/>
+          <cell r="H47"/>
+          <cell r="I47"/>
         </row>
         <row r="48">
           <cell r="A48">
@@ -1072,6 +1222,9 @@
           <cell r="F48">
             <v>1.339972357096735E-3</v>
           </cell>
+          <cell r="G48"/>
+          <cell r="H48"/>
+          <cell r="I48"/>
         </row>
         <row r="49">
           <cell r="A49">
@@ -1092,6 +1245,9 @@
           <cell r="F49">
             <v>0.36122041347011402</v>
           </cell>
+          <cell r="G49"/>
+          <cell r="H49"/>
+          <cell r="I49"/>
         </row>
         <row r="50">
           <cell r="A50">
@@ -1112,6 +1268,9 @@
           <cell r="F50">
             <v>0.1416564728950383</v>
           </cell>
+          <cell r="G50"/>
+          <cell r="H50"/>
+          <cell r="I50"/>
         </row>
         <row r="51">
           <cell r="A51">
@@ -1132,6 +1291,9 @@
           <cell r="F51">
             <v>0.47792767229526018</v>
           </cell>
+          <cell r="G51"/>
+          <cell r="H51"/>
+          <cell r="I51"/>
         </row>
         <row r="52">
           <cell r="A52">
@@ -1152,6 +1314,9 @@
           <cell r="F52">
             <v>0.12931809377120931</v>
           </cell>
+          <cell r="G52"/>
+          <cell r="H52"/>
+          <cell r="I52"/>
         </row>
         <row r="53">
           <cell r="A53">
@@ -1172,6 +1337,9 @@
           <cell r="F53">
             <v>0.38076401426195372</v>
           </cell>
+          <cell r="G53"/>
+          <cell r="H53"/>
+          <cell r="I53"/>
         </row>
         <row r="54">
           <cell r="A54">
@@ -1192,6 +1360,9 @@
           <cell r="F54">
             <v>0.1136074190147164</v>
           </cell>
+          <cell r="G54"/>
+          <cell r="H54"/>
+          <cell r="I54"/>
         </row>
         <row r="55">
           <cell r="A55">
@@ -1212,6 +1383,9 @@
           <cell r="F55">
             <v>0.632884962394484</v>
           </cell>
+          <cell r="G55"/>
+          <cell r="H55"/>
+          <cell r="I55"/>
         </row>
         <row r="56">
           <cell r="A56">
@@ -1232,6 +1406,9 @@
           <cell r="F56">
             <v>2.7970185036157381E-2</v>
           </cell>
+          <cell r="G56"/>
+          <cell r="H56"/>
+          <cell r="I56"/>
         </row>
         <row r="57">
           <cell r="A57">
@@ -1252,6 +1429,9 @@
           <cell r="F57">
             <v>6.2615974431816353E-3</v>
           </cell>
+          <cell r="G57"/>
+          <cell r="H57"/>
+          <cell r="I57"/>
         </row>
         <row r="58">
           <cell r="A58">
@@ -1272,6 +1452,9 @@
           <cell r="F58">
             <v>0.29544224959419252</v>
           </cell>
+          <cell r="G58"/>
+          <cell r="H58"/>
+          <cell r="I58"/>
         </row>
         <row r="59">
           <cell r="A59">
@@ -1292,6 +1475,9 @@
           <cell r="F59">
             <v>9.3609635994876164E-2</v>
           </cell>
+          <cell r="G59"/>
+          <cell r="H59"/>
+          <cell r="I59"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1561,24 +1747,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" customWidth="1"/>
+    <col min="11" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>Date</v>
@@ -1625,7 +1811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45743.875</v>
@@ -1672,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.84375</v>
@@ -1719,7 +1905,7 @@
         <v>939.58668912417102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.854166666657</v>
@@ -1766,7 +1952,7 @@
         <v>52.439940595617699</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.864583333343</v>
@@ -1813,7 +1999,7 @@
         <v>160.42348255147064</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.875</v>
@@ -1860,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.583333333343</v>
@@ -1907,7 +2093,7 @@
         <v>0.68606633912098558</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.625</v>
@@ -1954,7 +2140,7 @@
         <v>72.587816557279737</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.625</v>
@@ -2001,7 +2187,7 @@
         <v>378.18927968865364</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2048,7 +2234,7 @@
         <v>201.76325531107847</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2095,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2142,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2189,7 +2375,7 @@
         <v>259.25034887473305</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2236,7 +2422,7 @@
         <v>369.22215190610979</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2283,7 +2469,7 @@
         <v>62.332626694519362</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.677083333343</v>
@@ -2309,31 +2495,28 @@
         <v>0.49495402506430042</v>
       </c>
       <c r="G16">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="H16">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I16">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.7</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>50.785263196823962</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.6875</v>
@@ -2359,31 +2542,28 @@
         <v>0.45187097049297897</v>
       </c>
       <c r="G17">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="H17">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="1"/>
+        <v>63.91176707737543</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>52.860927634856672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.708333333343</v>
@@ -2409,31 +2589,28 @@
         <v>0.92108313347031101</v>
       </c>
       <c r="G18">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="H18">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="I18">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.63</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>697.47437858270666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.75</v>
@@ -2459,31 +2636,28 @@
         <v>0.96488323591001945</v>
       </c>
       <c r="G19">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="H19">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="I19">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.37</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>907.16690583300897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.75</v>
@@ -2509,31 +2683,32 @@
         <v>5.641831309097245E-2</v>
       </c>
       <c r="G20">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="H20">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="I20">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6.75</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="1"/>
+        <v>464.20806376319126</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <f>SUM(J16:L59)</f>
+        <v>2867.4425730471444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.770833333343</v>
@@ -2559,31 +2734,28 @@
         <v>0.525800893792153</v>
       </c>
       <c r="G21">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H21">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I21">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L21" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.69</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>130.22289255810836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.770833333343</v>
@@ -2609,31 +2781,28 @@
         <v>0.72501201618367961</v>
       </c>
       <c r="G22">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H22">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I22">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L22" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.45</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="3"/>
+        <v>207.16062735407209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.78125</v>
@@ -2659,31 +2828,28 @@
         <v>0.62117894251031247</v>
       </c>
       <c r="G23">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.59</v>
       </c>
       <c r="H23">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="I23">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L23" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.75</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <f t="shared" si="3"/>
+        <v>210.23883989710109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.78125</v>
@@ -2709,31 +2875,28 @@
         <v>0.42913028318277008</v>
       </c>
       <c r="G24">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H24">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I24">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L24" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.42</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="2"/>
+        <v>67.409745493056761</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="3"/>
+        <v>16.003161656843357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.791666666657</v>
@@ -2783,7 +2946,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.854166666657</v>
@@ -2833,7 +2996,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.864583333343</v>
@@ -2883,7 +3046,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -2933,7 +3096,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -2983,7 +3146,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3033,7 +3196,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.878472222219</v>
@@ -3083,7 +3246,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.510416666657</v>
@@ -3133,7 +3296,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.520833333343</v>
@@ -3183,7 +3346,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.583333333343</v>
@@ -3233,7 +3396,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3283,7 +3446,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3333,7 +3496,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3383,7 +3546,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.625</v>
@@ -3433,7 +3596,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.625</v>
@@ -3483,7 +3646,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.645833333343</v>
@@ -3533,7 +3696,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.645833333343</v>
@@ -3583,7 +3746,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.677083333343</v>
@@ -3633,7 +3796,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.697916666657</v>
@@ -3683,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3733,7 +3896,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3783,7 +3946,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3833,7 +3996,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.729166666657</v>
@@ -3883,7 +4046,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.75</v>
@@ -3933,7 +4096,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.75</v>
@@ -3983,7 +4146,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.770833333343</v>
@@ -4033,7 +4196,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.854166666657</v>
@@ -4083,7 +4246,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.864583333343</v>
@@ -4133,7 +4296,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.864583333343</v>
@@ -4183,7 +4346,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.875</v>
@@ -4233,7 +4396,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.770833333343</v>
@@ -4283,7 +4446,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.864583333343</v>
@@ -4333,7 +4496,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.875</v>
@@ -4383,7 +4546,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45748.822916666657</v>
@@ -4433,7 +4596,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45748.833333333343</v>

--- a/ML_PL_new/realbet.xlsx
+++ b/ML_PL_new/realbet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\.Data files\TSDP\ML_PL_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\..Data\TSDP\ML_PL_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98479FBF-F47F-4138-8824-A19729EF1557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12040" yWindow="0" windowWidth="7160" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12045" yWindow="0" windowWidth="7155" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1747,24 +1746,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>Date</v>
@@ -1811,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45743.875</v>
@@ -1858,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.84375</v>
@@ -1905,7 +1904,7 @@
         <v>939.58668912417102</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.854166666657</v>
@@ -1952,7 +1951,7 @@
         <v>52.439940595617699</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.864583333343</v>
@@ -1999,7 +1998,7 @@
         <v>160.42348255147064</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45744.875</v>
@@ -2046,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.583333333343</v>
@@ -2093,7 +2092,7 @@
         <v>0.68606633912098558</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.625</v>
@@ -2140,7 +2139,7 @@
         <v>72.587816557279737</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.625</v>
@@ -2187,7 +2186,7 @@
         <v>378.18927968865364</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2234,7 +2233,7 @@
         <v>201.76325531107847</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2281,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2328,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2375,7 +2374,7 @@
         <v>259.25034887473305</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2422,7 +2421,7 @@
         <v>369.22215190610979</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.645833333343</v>
@@ -2469,7 +2468,7 @@
         <v>62.332626694519362</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.677083333343</v>
@@ -2516,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.6875</v>
@@ -2563,7 +2562,7 @@
         <v>52.860927634856672</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.708333333343</v>
@@ -2610,7 +2609,7 @@
         <v>697.47437858270666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.75</v>
@@ -2657,7 +2656,7 @@
         <v>907.16690583300897</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.75</v>
@@ -2703,12 +2702,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="1">
-        <f>SUM(J16:L59)</f>
-        <v>2867.4425730471444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.770833333343</v>
@@ -2755,7 +2750,7 @@
         <v>130.22289255810836</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.770833333343</v>
@@ -2802,7 +2797,7 @@
         <v>207.16062735407209</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.78125</v>
@@ -2849,7 +2844,7 @@
         <v>210.23883989710109</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.78125</v>
@@ -2896,7 +2891,7 @@
         <v>16.003161656843357</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.791666666657</v>
@@ -2922,31 +2917,28 @@
         <v>0.99276296976950928</v>
       </c>
       <c r="G25">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H25">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I25">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L25" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.18</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="3"/>
+        <v>1153.2170051655969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.854166666657</v>
@@ -2972,31 +2964,28 @@
         <v>0.62024221792854128</v>
       </c>
       <c r="G26">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="H26">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="I26">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L26" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="3"/>
+        <v>150.08650640305044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.864583333343</v>
@@ -3022,31 +3011,28 @@
         <v>0.9072014918342296</v>
       </c>
       <c r="G27">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I27">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L27" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.79</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="3"/>
+        <v>630.27535977782031</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3072,31 +3058,28 @@
         <v>0.77552082589659643</v>
       </c>
       <c r="G28">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H28">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I28">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L28" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3.45</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="3"/>
+        <v>283.18702824071619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3122,31 +3105,28 @@
         <v>0.76151137402271829</v>
       </c>
       <c r="G29">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H29">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="I29">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L29" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1.95</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="3"/>
+        <v>373.97121985294046</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3172,31 +3152,19 @@
         <v>2.7965535538507029E-3</v>
       </c>
       <c r="G30">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="H30">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="I30">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L30" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.878472222219</v>
@@ -3222,31 +3190,23 @@
         <v>6.262615804121906E-6</v>
       </c>
       <c r="G31">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="H31">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I31">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L31" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3.85</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="N31" s="1">
+        <f>SUM(J26:L59)</f>
+        <v>1437.5201142745275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.510416666657</v>
@@ -3296,7 +3256,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.520833333343</v>
@@ -3346,7 +3306,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.583333333343</v>
@@ -3396,7 +3356,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3446,7 +3406,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3496,7 +3456,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3546,7 +3506,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.625</v>
@@ -3596,7 +3556,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.625</v>
@@ -3646,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.645833333343</v>
@@ -3696,7 +3656,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.645833333343</v>
@@ -3746,7 +3706,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.677083333343</v>
@@ -3796,7 +3756,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.697916666657</v>
@@ -3846,7 +3806,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3896,7 +3856,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3946,7 +3906,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3996,7 +3956,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.729166666657</v>
@@ -4046,7 +4006,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.75</v>
@@ -4096,7 +4056,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.75</v>
@@ -4146,7 +4106,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.770833333343</v>
@@ -4196,7 +4156,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.854166666657</v>
@@ -4246,7 +4206,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.864583333343</v>
@@ -4296,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.864583333343</v>
@@ -4346,7 +4306,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.875</v>
@@ -4396,7 +4356,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.770833333343</v>
@@ -4446,7 +4406,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.864583333343</v>
@@ -4496,7 +4456,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.875</v>
@@ -4546,7 +4506,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45748.822916666657</v>
@@ -4596,7 +4556,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45748.833333333343</v>

--- a/ML_PL_new/realbet.xlsx
+++ b/ML_PL_new/realbet.xlsx
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C59" sqref="A55:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1892,15 +1892,15 @@
         <v>1.41</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J59" si="1">IF(G3=0,"",IF(D3&gt;=1/G3,(D3-1/G3)*10000/(G3-1)/7,0))</f>
+        <f t="shared" ref="J3:J28" si="1">IF(G3=0,"",IF(D3&gt;=1/G3,(D3-1/G3)*10000/(G3-1)/7,0))</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K59" si="2">IF(H3=0,"",IF(E3&gt;=1/H3,(E3-1/H3)*10000/(H3-1)/7,0))</f>
+        <f t="shared" ref="K3:K28" si="2">IF(H3=0,"",IF(E3&gt;=1/H3,(E3-1/H3)*10000/(H3-1)/7,0))</f>
         <v>0</v>
       </c>
       <c r="L3" s="1">
-        <f t="shared" ref="L3:L59" si="3">IF(I3=0,"",IF(F3&gt;=1/I3,(F3-1/I3)*10000/(I3-1)/7,0))</f>
+        <f t="shared" ref="L3:L28" si="3">IF(I3=0,"",IF(F3&gt;=1/I3,(F3-1/I3)*10000/(I3-1)/7,0))</f>
         <v>939.58668912417102</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.6875</v>
@@ -2562,7 +2562,7 @@
         <v>52.860927634856672</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.708333333343</v>
@@ -2609,7 +2609,7 @@
         <v>697.47437858270666</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.75</v>
@@ -2656,7 +2656,7 @@
         <v>907.16690583300897</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.75</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.770833333343</v>
@@ -2750,7 +2750,7 @@
         <v>130.22289255810836</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.770833333343</v>
@@ -2797,7 +2797,7 @@
         <v>207.16062735407209</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.78125</v>
@@ -2844,7 +2844,7 @@
         <v>210.23883989710109</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.78125</v>
@@ -2891,7 +2891,7 @@
         <v>16.003161656843357</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.791666666657</v>
@@ -2938,7 +2938,7 @@
         <v>1153.2170051655969</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.854166666657</v>
@@ -2985,7 +2985,7 @@
         <v>150.08650640305044</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.864583333343</v>
@@ -3032,7 +3032,7 @@
         <v>630.27535977782031</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3079,7 +3079,7 @@
         <v>283.18702824071619</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3114,19 +3114,19 @@
         <v>1.95</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J29:J33" si="4">IF(G29=0,"",IF(D29&gt;=1/G29,(D29-1/G29)*10000/(G29-1)/7,0))</f>
         <v>0</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K29:K33" si="5">IF(H29=0,"",IF(E29&gt;=1/H29,(E29-1/H29)*10000/(H29-1)/7,0))</f>
         <v>0</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L29:L33" si="6">IF(I29=0,"",IF(F29&gt;=1/I29,(F29-1/I29)*10000/(I29-1)/7,0))</f>
         <v>373.97121985294046</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.875</v>
@@ -3160,11 +3160,20 @@
       <c r="I30">
         <v>17</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J30" s="1">
+        <f t="shared" si="4"/>
+        <v>891.58585648890289</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45745.878472222219</v>
@@ -3198,15 +3207,20 @@
       <c r="I31">
         <v>3.85</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="N31" s="1">
-        <f>SUM(J26:L59)</f>
-        <v>1437.5201142745275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J31" s="1">
+        <f t="shared" si="4"/>
+        <v>707.9508274806733</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.510416666657</v>
@@ -3232,31 +3246,28 @@
         <v>0.13833030848862349</v>
       </c>
       <c r="G32">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="H32">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I32">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L32" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="4"/>
+        <v>387.99345104871736</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.520833333343</v>
@@ -3282,31 +3293,29 @@
         <v>0.20649101789422791</v>
       </c>
       <c r="G33">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="H33">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="I33">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L33" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="5"/>
+        <v>148.88198717396702</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="6"/>
+        <v>2.3182206765099651</v>
+      </c>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.583333333343</v>
@@ -3332,31 +3341,28 @@
         <v>0.93768833013184671</v>
       </c>
       <c r="G34">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H34">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="I34">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L34" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" ref="J34:J59" si="7">IF(G34=0,"",IF(D34&gt;=1/G34,(D34-1/G34)*10000/(G34-1)/7,0))</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" ref="K34:K59" si="8">IF(H34=0,"",IF(E34&gt;=1/H34,(E34-1/H34)*10000/(H34-1)/7,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" ref="L34:L59" si="9">IF(I34=0,"",IF(F34&gt;=1/I34,(F34-1/I34)*10000/(I34-1)/7,0))</f>
+        <v>548.32667464634858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3382,31 +3388,28 @@
         <v>2.910130620569714E-2</v>
       </c>
       <c r="G35">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="H35">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I35">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L35" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.85</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="7"/>
+        <v>299.52916700732982</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3432,31 +3435,28 @@
         <v>0.1911998296916983</v>
       </c>
       <c r="G36">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="H36">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I36">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L36" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="7"/>
+        <v>211.46714740619964</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.604166666657</v>
@@ -3482,31 +3482,28 @@
         <v>7.6243747927501576E-4</v>
       </c>
       <c r="G37">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="H37">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I37">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L37" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.5</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="7"/>
+        <v>607.02435194230679</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.625</v>
@@ -3532,31 +3529,28 @@
         <v>0.74865809608493195</v>
       </c>
       <c r="G38">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="H38">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="I38">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.75</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="9"/>
+        <v>250.38515813935859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.625</v>
@@ -3582,31 +3576,28 @@
         <v>0.9602447563308778</v>
       </c>
       <c r="G39">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H39">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I39">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.15</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="9"/>
+        <v>615.06643138026141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.645833333343</v>
@@ -3632,31 +3623,28 @@
         <v>0.1171893213968152</v>
       </c>
       <c r="G40">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H40">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I40">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="7"/>
+        <v>313.94279263790503</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.645833333343</v>
@@ -3682,31 +3670,28 @@
         <v>0.14722350240442231</v>
       </c>
       <c r="G41">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="H41">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I41">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K41" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="7"/>
+        <v>172.80718908525981</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.677083333343</v>
@@ -3732,31 +3717,28 @@
         <v>1.9912312402871491E-2</v>
       </c>
       <c r="G42">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="H42">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I42">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.45</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="7"/>
+        <v>585.78874958154586</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.697916666657</v>
@@ -3782,31 +3764,28 @@
         <v>0.2287465452161393</v>
       </c>
       <c r="G43">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="H43">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I43">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K43" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="8"/>
+        <v>24.729455237581579</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="9"/>
+        <v>17.737108156992182</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3832,31 +3811,28 @@
         <v>0.39588407257366909</v>
       </c>
       <c r="G44">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="H44">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I44">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K44" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="8"/>
+        <v>182.38357882278905</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3882,31 +3858,28 @@
         <v>0.1158500194054858</v>
       </c>
       <c r="G45">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="H45">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K45" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="8"/>
+        <v>41.132944708678849</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.71875</v>
@@ -3932,31 +3905,28 @@
         <v>0.65333099644262316</v>
       </c>
       <c r="G46">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="H46">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="I46">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J46" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K46" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.46</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="9"/>
+        <v>241.51363150877961</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.729166666657</v>
@@ -3982,31 +3952,28 @@
         <v>0.81929326663769764</v>
       </c>
       <c r="G47">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="H47">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="I47">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J47" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K47" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.25</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="9"/>
+        <v>211.36708442403602</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.75</v>
@@ -4032,31 +3999,28 @@
         <v>1.339972357096735E-3</v>
       </c>
       <c r="G48">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="H48">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="I48">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J48" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K48" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.25</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="7"/>
+        <v>849.78788794115246</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.75</v>
@@ -4082,31 +4046,28 @@
         <v>0.36122041347011402</v>
       </c>
       <c r="G49">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H49">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.05</v>
       </c>
       <c r="I49">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K49" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L49" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1.55</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="7"/>
+        <v>63.275350449929583</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="8"/>
+        <v>1.7497016588074072</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.770833333343</v>
@@ -4132,31 +4093,32 @@
         <v>0.1416564728950383</v>
       </c>
       <c r="G50">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="H50">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I50">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K50" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L50" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+      <c r="J50" s="1">
+        <f>IF(G50=0,"",IF(D50&gt;=1/G50,(D50-1/G50)*10000/(G50-1)/7,0))</f>
+        <v>254.91154524967968</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1">
+        <f>SUM(J49:L54)</f>
+        <v>1218.3374213851521</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.854166666657</v>
@@ -4182,31 +4144,28 @@
         <v>0.47792767229526018</v>
       </c>
       <c r="G51">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H51">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I51">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K51" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L51" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2.19</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="8"/>
+        <v>37.112953367398852</v>
+      </c>
+      <c r="L51" s="1">
+        <f t="shared" si="9"/>
+        <v>25.578232567887277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.864583333343</v>
@@ -4232,31 +4191,28 @@
         <v>0.12931809377120931</v>
       </c>
       <c r="G52">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="H52">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I52">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J52" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K52" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L52" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="7"/>
+        <v>339.62710083927476</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.864583333343</v>
@@ -4282,31 +4238,28 @@
         <v>0.38076401426195372</v>
       </c>
       <c r="G53">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H53">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="I53">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K53" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L53" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.2</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="8"/>
+        <v>80.475976887549663</v>
+      </c>
+      <c r="L53" s="1">
+        <f t="shared" si="9"/>
+        <v>63.691417931569482</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45746.875</v>
@@ -4332,31 +4285,28 @@
         <v>0.1136074190147164</v>
       </c>
       <c r="G54">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H54">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="I54">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K54" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L54" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.7</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="7"/>
+        <v>351.91514243305534</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.770833333343</v>
@@ -4382,31 +4332,28 @@
         <v>0.632884962394484</v>
       </c>
       <c r="G55">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H55">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="I55">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J55" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K55" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L55" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3.15</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="9"/>
+        <v>209.5844816838316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.864583333343</v>
@@ -4432,31 +4379,28 @@
         <v>2.7970185036157381E-2</v>
       </c>
       <c r="G56">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="H56">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="I56">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J56" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K56" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L56" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>4.8</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="7"/>
+        <v>573.71360519224811</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45747.875</v>
@@ -4482,31 +4426,28 @@
         <v>6.2615974431816353E-3</v>
       </c>
       <c r="G57">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="H57">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I57">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K57" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L57" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="7"/>
+        <v>777.68720457353663</v>
+      </c>
+      <c r="K57" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45748.822916666657</v>
@@ -4532,31 +4473,28 @@
         <v>0.29544224959419252</v>
       </c>
       <c r="G58">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="H58">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I58">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K58" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L58" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="8"/>
+        <v>0.91413848415137977</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="9"/>
+        <v>34.784132570243372</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45748.833333333343</v>
@@ -4582,28 +4520,25 @@
         <v>9.3609635994876164E-2</v>
       </c>
       <c r="G59">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="H59">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="I59">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K59" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>3.15</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="7"/>
+        <v>219.91164210225111</v>
+      </c>
+      <c r="K59" s="1">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ML_PL_new/realbet.xlsx
+++ b/ML_PL_new/realbet.xlsx
@@ -74,9 +74,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -86,10 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -146,1337 +158,962 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>45743.875</v>
+            <v>45748.822916666657</v>
           </cell>
           <cell r="B2" t="str">
-            <v>Barcelona</v>
+            <v>Arsenal</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Osasuna</v>
+            <v>Fulham</v>
           </cell>
           <cell r="D2">
-            <v>0.95069058462783007</v>
+            <v>0.48009588889741578</v>
           </cell>
           <cell r="E2">
-            <v>4.5666990236142069E-2</v>
+            <v>0.22446186150839309</v>
           </cell>
           <cell r="F2">
-            <v>3.642425136028915E-3</v>
-          </cell>
-          <cell r="G2"/>
-          <cell r="H2"/>
-          <cell r="I2"/>
+            <v>0.29544224959419252</v>
+          </cell>
+          <cell r="G2">
+            <v>1.48</v>
+          </cell>
+          <cell r="H2">
+            <v>4.6500000000000004</v>
+          </cell>
+          <cell r="I2">
+            <v>8.25</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3">
-            <v>45744.84375</v>
+            <v>45748.833333333343</v>
           </cell>
           <cell r="B3" t="str">
-            <v>Gil Vicente</v>
+            <v>AZ Alkmaar</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Benfica</v>
+            <v>Waalwijk</v>
           </cell>
           <cell r="D3">
-            <v>3.116093761831544E-5</v>
+            <v>0.45043032597087879</v>
           </cell>
           <cell r="E3">
-            <v>2.108760112771781E-2</v>
+            <v>0.20590736622698269</v>
           </cell>
           <cell r="F3">
-            <v>0.97888123793466542</v>
-          </cell>
-          <cell r="G3"/>
-          <cell r="H3"/>
-          <cell r="I3"/>
+            <v>0.34366230780213919</v>
+          </cell>
+          <cell r="G3">
+            <v>1.27</v>
+          </cell>
+          <cell r="H3">
+            <v>6</v>
+          </cell>
+          <cell r="I3">
+            <v>10</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4">
-            <v>45744.854166666657</v>
+            <v>45748.833333333343</v>
           </cell>
           <cell r="B4" t="str">
-            <v>Leverkusen</v>
+            <v>Nott'm Forest</v>
           </cell>
           <cell r="C4" t="str">
-            <v>Bochum</v>
+            <v>Man United</v>
           </cell>
           <cell r="D4">
-            <v>0.45550612799778678</v>
+            <v>0.56869786305998926</v>
           </cell>
           <cell r="E4">
-            <v>0.1005301718032587</v>
+            <v>0.29200110025100862</v>
           </cell>
           <cell r="F4">
-            <v>0.44396370019895293</v>
-          </cell>
-          <cell r="G4"/>
-          <cell r="H4"/>
-          <cell r="I4"/>
+            <v>0.13930103668900051</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5">
-            <v>45744.864583333343</v>
+            <v>45748.84375</v>
           </cell>
           <cell r="B5" t="str">
-            <v>Strasbourg</v>
+            <v>Boavista</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Lyon</v>
+            <v>Gil Vicente</v>
           </cell>
           <cell r="D5">
-            <v>0.13964296092987399</v>
+            <v>0.27970833816080898</v>
           </cell>
           <cell r="E5">
-            <v>0.29238304351123101</v>
+            <v>0.25751002932709899</v>
           </cell>
           <cell r="F5">
-            <v>0.56797399555889649</v>
-          </cell>
-          <cell r="G5"/>
-          <cell r="H5"/>
-          <cell r="I5"/>
+            <v>0.46278163251209181</v>
+          </cell>
+          <cell r="G5">
+            <v>3.4</v>
+          </cell>
+          <cell r="H5">
+            <v>3.1</v>
+          </cell>
+          <cell r="I5">
+            <v>2.27</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6">
-            <v>45744.875</v>
+            <v>45749.822916666657</v>
           </cell>
           <cell r="B6" t="str">
-            <v>Ath Bilbao</v>
+            <v>Newcastle</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Osasuna</v>
+            <v>Brentford</v>
           </cell>
           <cell r="D6">
-            <v>0.99222276679813226</v>
+            <v>7.7568834403656927E-3</v>
           </cell>
           <cell r="E6">
-            <v>7.7680703179466848E-3</v>
+            <v>3.8966104102962022E-2</v>
           </cell>
           <cell r="F6">
-            <v>9.1628839217753024E-6</v>
-          </cell>
-          <cell r="G6"/>
-          <cell r="H6"/>
-          <cell r="I6"/>
+            <v>0.95327701245667074</v>
+          </cell>
+          <cell r="G6">
+            <v>1.76</v>
+          </cell>
+          <cell r="H6">
+            <v>4.3</v>
+          </cell>
+          <cell r="I6">
+            <v>4.3</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7">
-            <v>45745.583333333343</v>
+            <v>45749.822916666657</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Sociedad</v>
+            <v>Man City</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Valladolid</v>
+            <v>Leicester</v>
           </cell>
           <cell r="D7">
-            <v>0.60257025212334536</v>
+            <v>0.73404167156048927</v>
           </cell>
           <cell r="E7">
-            <v>0.29762931148340638</v>
+            <v>0.1678528136578766</v>
           </cell>
           <cell r="F7">
-            <v>9.9800436393249786E-2</v>
-          </cell>
-          <cell r="G7"/>
-          <cell r="H7"/>
-          <cell r="I7"/>
+            <v>9.8105514781632527E-2</v>
+          </cell>
+          <cell r="G7">
+            <v>1.23</v>
+          </cell>
+          <cell r="H7">
+            <v>7.25</v>
+          </cell>
+          <cell r="I7">
+            <v>12</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8">
-            <v>45745.625</v>
+            <v>45749.822916666657</v>
           </cell>
           <cell r="B8" t="str">
-            <v>Como</v>
+            <v>Southampton</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Empoli</v>
+            <v>Crystal Palace</v>
           </cell>
           <cell r="D8">
-            <v>0.32458793188839152</v>
+            <v>7.8662655161190471E-4</v>
           </cell>
           <cell r="E8">
-            <v>0.27216618175122481</v>
+            <v>2.5652257096254811E-2</v>
           </cell>
           <cell r="F8">
-            <v>0.40324588636038328</v>
-          </cell>
-          <cell r="G8"/>
-          <cell r="H8"/>
-          <cell r="I8"/>
+            <v>0.97356111635213205</v>
+          </cell>
+          <cell r="G8">
+            <v>5.5</v>
+          </cell>
+          <cell r="H8">
+            <v>4.05</v>
+          </cell>
+          <cell r="I8">
+            <v>1.65</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9">
-            <v>45745.625</v>
+            <v>45749.822916666657</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Venezia</v>
+            <v>Bournemouth</v>
           </cell>
           <cell r="C9" t="str">
-            <v>Bologna</v>
+            <v>Ipswich</v>
           </cell>
           <cell r="D9">
-            <v>8.1642437086431804E-2</v>
+            <v>0.32935678080870401</v>
           </cell>
           <cell r="E9">
-            <v>0.15305320793884669</v>
+            <v>0.1654544583993712</v>
           </cell>
           <cell r="F9">
-            <v>0.76530435497472005</v>
-          </cell>
-          <cell r="G9"/>
-          <cell r="H9"/>
-          <cell r="I9"/>
+            <v>0.50518876079192587</v>
+          </cell>
+          <cell r="G9">
+            <v>1.41</v>
+          </cell>
+          <cell r="H9">
+            <v>5.25</v>
+          </cell>
+          <cell r="I9">
+            <v>7.5</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10">
-            <v>45745.645833333343</v>
+            <v>45749.822916666657</v>
           </cell>
           <cell r="B10" t="str">
-            <v>M'gladbach</v>
+            <v>Brighton</v>
           </cell>
           <cell r="C10" t="str">
-            <v>RB Leipzig</v>
+            <v>Aston Villa</v>
           </cell>
           <cell r="D10">
-            <v>5.1591678460373491E-2</v>
+            <v>0.64926773759119016</v>
           </cell>
           <cell r="E10">
-            <v>0.33297643142625899</v>
+            <v>0.27866884268863878</v>
           </cell>
           <cell r="F10">
-            <v>0.61543189011336641</v>
-          </cell>
-          <cell r="G10"/>
-          <cell r="H10"/>
-          <cell r="I10"/>
+            <v>7.2063419720172314E-2</v>
+          </cell>
+          <cell r="G10">
+            <v>2.11</v>
+          </cell>
+          <cell r="H10">
+            <v>3.9</v>
+          </cell>
+          <cell r="I10">
+            <v>3.3</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11">
-            <v>45745.645833333343</v>
+            <v>45749.833333333343</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Casa Pia</v>
+            <v>Feyenoord</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Rio Ave</v>
+            <v>Groningen</v>
           </cell>
           <cell r="D11">
-            <v>0.61011820410828788</v>
+            <v>0.91708939075554596</v>
           </cell>
           <cell r="E11">
-            <v>0.1985845931454627</v>
+            <v>5.4907463400560297E-2</v>
           </cell>
           <cell r="F11">
-            <v>0.1912972027462477</v>
-          </cell>
-          <cell r="G11"/>
-          <cell r="H11"/>
-          <cell r="I11"/>
+            <v>2.8003145843892369E-2</v>
+          </cell>
+          <cell r="G11">
+            <v>1.39</v>
+          </cell>
+          <cell r="H11">
+            <v>4.8499999999999996</v>
+          </cell>
+          <cell r="I11">
+            <v>7.75</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12">
-            <v>45745.645833333343</v>
+            <v>45749.833333333343</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Bayern Munich</v>
+            <v>Liverpool</v>
           </cell>
           <cell r="C12" t="str">
-            <v>St Pauli</v>
+            <v>Everton</v>
           </cell>
           <cell r="D12">
-            <v>0.99055357577561243</v>
+            <v>0.86878049330547369</v>
           </cell>
           <cell r="E12">
-            <v>9.433156101788279E-3</v>
+            <v>8.5471666277534816E-2</v>
           </cell>
           <cell r="F12">
-            <v>1.3268122598007771E-5</v>
-          </cell>
-          <cell r="G12"/>
-          <cell r="H12"/>
-          <cell r="I12"/>
+            <v>4.5747840416991779E-2</v>
+          </cell>
+          <cell r="G12">
+            <v>1.39</v>
+          </cell>
+          <cell r="H12">
+            <v>5</v>
+          </cell>
+          <cell r="I12">
+            <v>8.5</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13">
-            <v>45745.645833333343</v>
+            <v>45749.84375</v>
           </cell>
           <cell r="B13" t="str">
-            <v>Holstein Kiel</v>
+            <v>Benfica</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Werder Bremen</v>
+            <v>Farense</v>
           </cell>
           <cell r="D13">
-            <v>7.0423129749233135E-2</v>
+            <v>0.99747727050567048</v>
           </cell>
           <cell r="E13">
-            <v>0.25700032507190251</v>
+            <v>2.521124579730616E-3</v>
           </cell>
           <cell r="F13">
-            <v>0.67257654517886267</v>
-          </cell>
-          <cell r="G13"/>
-          <cell r="H13"/>
-          <cell r="I13"/>
+            <v>1.604914598513395E-6</v>
+          </cell>
+          <cell r="G13">
+            <v>1.1399999999999999</v>
+          </cell>
+          <cell r="H13">
+            <v>8</v>
+          </cell>
+          <cell r="I13">
+            <v>19</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45745.645833333343</v>
+            <v>45750.833333333343</v>
           </cell>
           <cell r="B14" t="str">
-            <v>Hoffenheim</v>
+            <v>Chelsea</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Augsburg</v>
+            <v>Tottenham</v>
           </cell>
           <cell r="D14">
-            <v>3.0155814076152272E-2</v>
+            <v>0.93092550059533163</v>
           </cell>
           <cell r="E14">
-            <v>0.11214154547956499</v>
+            <v>5.2568324755210109E-2</v>
           </cell>
           <cell r="F14">
-            <v>0.8577026404442839</v>
-          </cell>
-          <cell r="G14"/>
-          <cell r="H14"/>
-          <cell r="I14"/>
+            <v>1.650617464945835E-2</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45745.645833333343</v>
+            <v>45751.833333333343</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Wolfsburg</v>
+            <v>Heerenveen</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Heidenheim</v>
+            <v>Willem II</v>
           </cell>
           <cell r="D15">
-            <v>0.4116384381944535</v>
+            <v>0.88403537627291462</v>
           </cell>
           <cell r="E15">
-            <v>0.2138302070608917</v>
+            <v>9.6357470122326538E-2</v>
           </cell>
           <cell r="F15">
-            <v>0.37453135474465421</v>
-          </cell>
-          <cell r="G15"/>
-          <cell r="H15"/>
-          <cell r="I15"/>
+            <v>1.960715360475877E-2</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45745.677083333343</v>
+            <v>45751.84375</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Espanol</v>
+            <v>AVS</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Ath Madrid</v>
+            <v>Estoril</v>
           </cell>
           <cell r="D16">
-            <v>0.14061767661514579</v>
+            <v>0.16164359065281919</v>
           </cell>
           <cell r="E16">
-            <v>0.36442829832055279</v>
+            <v>0.30439043947839228</v>
           </cell>
           <cell r="F16">
-            <v>0.49495402506430042</v>
-          </cell>
-          <cell r="G16"/>
-          <cell r="H16"/>
-          <cell r="I16"/>
+            <v>0.53396596986878864</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45745.6875</v>
+            <v>45751.854166666657</v>
           </cell>
           <cell r="B17" t="str">
-            <v>NAC Breda</v>
+            <v>Augsburg</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Groningen</v>
+            <v>Bayern Munich</v>
           </cell>
           <cell r="D17">
-            <v>0.4336429313476573</v>
+            <v>6.5414312038908615E-2</v>
           </cell>
           <cell r="E17">
-            <v>0.1144860981593641</v>
+            <v>0.1911424929359653</v>
           </cell>
           <cell r="F17">
-            <v>0.45187097049297897</v>
-          </cell>
-          <cell r="G17"/>
-          <cell r="H17"/>
-          <cell r="I17"/>
+            <v>0.74344319502512757</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45745.708333333343</v>
+            <v>45751.864583333343</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Reims</v>
+            <v>Genoa</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Marseille</v>
+            <v>Udinese</v>
           </cell>
           <cell r="D18">
-            <v>5.4081687800300706E-3</v>
+            <v>0.2149632075042083</v>
           </cell>
           <cell r="E18">
-            <v>7.350869774965961E-2</v>
+            <v>0.40204212855917942</v>
           </cell>
           <cell r="F18">
-            <v>0.92108313347031101</v>
-          </cell>
-          <cell r="G18"/>
-          <cell r="H18"/>
-          <cell r="I18"/>
+            <v>0.38299466393661152</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45745.75</v>
+            <v>45751.864583333343</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Estrela</v>
+            <v>Nice</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Sp Lisbon</v>
+            <v>Nantes</v>
           </cell>
           <cell r="D19">
-            <v>7.8555109754681086E-3</v>
+            <v>0.7600972215002999</v>
           </cell>
           <cell r="E19">
-            <v>2.726125311451183E-2</v>
+            <v>0.17229201557846871</v>
           </cell>
           <cell r="F19">
-            <v>0.96488323591001945</v>
-          </cell>
-          <cell r="G19"/>
-          <cell r="H19"/>
-          <cell r="I19"/>
+            <v>6.7610762921232345E-2</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45745.75</v>
+            <v>45751.875</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Juventus</v>
+            <v>Vallecano</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Genoa</v>
+            <v>Espanol</v>
           </cell>
           <cell r="D20">
-            <v>0.8206487479442609</v>
+            <v>0.35480788517338069</v>
           </cell>
           <cell r="E20">
-            <v>0.12293293896476661</v>
+            <v>0.41966594856366363</v>
           </cell>
           <cell r="F20">
-            <v>5.641831309097245E-2</v>
-          </cell>
-          <cell r="G20"/>
-          <cell r="H20"/>
-          <cell r="I20"/>
+            <v>0.22552616626295571</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45745.770833333343</v>
+            <v>45752.520833333343</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Ein Frankfurt</v>
+            <v>Everton</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Stuttgart</v>
+            <v>Arsenal</v>
           </cell>
           <cell r="D21">
-            <v>0.23430857059426149</v>
+            <v>1.185645553671493E-2</v>
           </cell>
           <cell r="E21">
-            <v>0.2398905356135837</v>
+            <v>0.1332467583217517</v>
           </cell>
           <cell r="F21">
-            <v>0.525800893792153</v>
-          </cell>
-          <cell r="G21"/>
-          <cell r="H21"/>
-          <cell r="I21"/>
+            <v>0.85489678614153186</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45745.770833333343</v>
+            <v>45752.583333333343</v>
           </cell>
           <cell r="B22" t="str">
+            <v>Girona</v>
+          </cell>
+          <cell r="C22" t="str">
             <v>Alaves</v>
           </cell>
-          <cell r="C22" t="str">
-            <v>Vallecano</v>
-          </cell>
           <cell r="D22">
-            <v>6.239716966726272E-2</v>
+            <v>0.1268182979181505</v>
           </cell>
           <cell r="E22">
-            <v>0.21259081414905651</v>
+            <v>0.15935133282998451</v>
           </cell>
           <cell r="F22">
-            <v>0.72501201618367961</v>
-          </cell>
-          <cell r="G22"/>
-          <cell r="H22"/>
-          <cell r="I22"/>
+            <v>0.71383036925186416</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45745.78125</v>
+            <v>45752.625</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Willem II</v>
+            <v>Monza</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Almere City</v>
+            <v>Como</v>
           </cell>
           <cell r="D23">
-            <v>0.12231879859023891</v>
+            <v>0.23640156609235</v>
           </cell>
           <cell r="E23">
-            <v>0.25650225889944939</v>
+            <v>0.20062867624022471</v>
           </cell>
           <cell r="F23">
-            <v>0.62117894251031247</v>
-          </cell>
-          <cell r="G23"/>
-          <cell r="H23"/>
-          <cell r="I23"/>
+            <v>0.56296975766742474</v>
+          </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45745.78125</v>
+            <v>45752.625</v>
           </cell>
           <cell r="B24" t="str">
-            <v>For Sittard</v>
+            <v>West Ham</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Sparta Rotterdam</v>
+            <v>Bournemouth</v>
           </cell>
           <cell r="D24">
-            <v>0.1614732227945852</v>
+            <v>7.5929656452999603E-3</v>
           </cell>
           <cell r="E24">
-            <v>0.4093964940226455</v>
+            <v>0.13895002104819351</v>
           </cell>
           <cell r="F24">
-            <v>0.42913028318277008</v>
-          </cell>
-          <cell r="G24"/>
-          <cell r="H24"/>
-          <cell r="I24"/>
+            <v>0.85345701330650536</v>
+          </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45745.791666666657</v>
+            <v>45752.625</v>
           </cell>
           <cell r="B25" t="str">
-            <v>St Etienne</v>
+            <v>Crystal Palace</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Paris SG</v>
+            <v>Brighton</v>
           </cell>
           <cell r="D25">
-            <v>2.274993634544066E-6</v>
+            <v>0.20801958532789319</v>
           </cell>
           <cell r="E25">
-            <v>7.2347552368576731E-3</v>
+            <v>0.27410184754842642</v>
           </cell>
           <cell r="F25">
-            <v>0.99276296976950928</v>
-          </cell>
-          <cell r="G25"/>
-          <cell r="H25"/>
-          <cell r="I25"/>
+            <v>0.51787856712367986</v>
+          </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45745.854166666657</v>
+            <v>45752.645833333343</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Sp Braga</v>
+            <v>Heidenheim</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Arouca</v>
+            <v>Leverkusen</v>
           </cell>
           <cell r="D26">
-            <v>0.1369387806162253</v>
+            <v>5.3585512814573432E-6</v>
           </cell>
           <cell r="E26">
-            <v>0.24281900145523189</v>
+            <v>2.2788357947858731E-2</v>
           </cell>
           <cell r="F26">
-            <v>0.62024221792854128</v>
-          </cell>
-          <cell r="G26"/>
-          <cell r="H26"/>
-          <cell r="I26"/>
+            <v>0.97720628350085958</v>
+          </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45745.864583333343</v>
+            <v>45752.645833333343</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Lecce</v>
+            <v>Bochum</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Roma</v>
+            <v>Stuttgart</v>
           </cell>
           <cell r="D27">
-            <v>1.453420984259278E-3</v>
+            <v>0.34438407775364271</v>
           </cell>
           <cell r="E27">
-            <v>9.134508718150991E-2</v>
+            <v>0.20925187842142151</v>
           </cell>
           <cell r="F27">
-            <v>0.9072014918342296</v>
-          </cell>
-          <cell r="G27"/>
-          <cell r="H27"/>
-          <cell r="I27"/>
+            <v>0.44636404382493561</v>
+          </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45745.875</v>
+            <v>45752.645833333343</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Zwolle</v>
+            <v>Mainz</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Waalwijk</v>
+            <v>Holstein Kiel</v>
           </cell>
           <cell r="D28">
-            <v>2.7641132289290969E-3</v>
+            <v>0.48927875577308078</v>
           </cell>
           <cell r="E28">
-            <v>0.22171506087447579</v>
+            <v>0.21193188392633569</v>
           </cell>
           <cell r="F28">
-            <v>0.77552082589659643</v>
-          </cell>
-          <cell r="G28"/>
-          <cell r="H28"/>
-          <cell r="I28"/>
+            <v>0.29878936030058489</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45745.875</v>
+            <v>45752.645833333343</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Nijmegen</v>
+            <v>RB Leipzig</v>
           </cell>
           <cell r="C29" t="str">
-            <v>AZ Alkmaar</v>
+            <v>Hoffenheim</v>
           </cell>
           <cell r="D29">
-            <v>5.2362957120896017E-2</v>
+            <v>0.42476289082163599</v>
           </cell>
           <cell r="E29">
-            <v>0.18612566885638429</v>
+            <v>0.13595108841260489</v>
           </cell>
           <cell r="F29">
-            <v>0.76151137402271829</v>
-          </cell>
-          <cell r="G29"/>
-          <cell r="H29"/>
-          <cell r="I29"/>
+            <v>0.43928602076575912</v>
+          </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45745.875</v>
+            <v>45752.645833333343</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Real Madrid</v>
+            <v>Freiburg</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Leganes</v>
+            <v>Dortmund</v>
           </cell>
           <cell r="D30">
-            <v>0.95979744503624587</v>
+            <v>0.12217609630160189</v>
           </cell>
           <cell r="E30">
-            <v>3.7406001409903862E-2</v>
+            <v>0.51144344494300975</v>
           </cell>
           <cell r="F30">
-            <v>2.7965535538507029E-3</v>
-          </cell>
-          <cell r="G30"/>
-          <cell r="H30"/>
-          <cell r="I30"/>
+            <v>0.36638045875538838</v>
+          </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45745.878472222219</v>
+            <v>45752.677083333343</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Monaco</v>
+            <v>Real Madrid</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Nice</v>
+            <v>Valencia</v>
           </cell>
           <cell r="D31">
-            <v>0.9931224862581769</v>
+            <v>0.97714815243285846</v>
           </cell>
           <cell r="E31">
-            <v>6.8712511260219794E-3</v>
+            <v>2.075227890055362E-2</v>
           </cell>
           <cell r="F31">
-            <v>6.262615804121906E-6</v>
-          </cell>
-          <cell r="G31"/>
-          <cell r="H31"/>
-          <cell r="I31"/>
+            <v>2.0995686665883132E-3</v>
+          </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>45746.510416666657</v>
+            <v>45752.708333333343</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Utrecht</v>
+            <v>Paris SG</v>
           </cell>
           <cell r="C32" t="str">
-            <v>Heerenveen</v>
+            <v>Angers</v>
           </cell>
           <cell r="D32">
-            <v>0.77161841008621102</v>
+            <v>0.99592699428468012</v>
           </cell>
           <cell r="E32">
-            <v>9.0051281425164123E-2</v>
+            <v>4.0294584757744429E-3</v>
           </cell>
           <cell r="F32">
-            <v>0.13833030848862349</v>
-          </cell>
-          <cell r="G32"/>
-          <cell r="H32"/>
-          <cell r="I32"/>
+            <v>4.3547239544774738E-5</v>
+          </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>45746.520833333343</v>
+            <v>45752.729166666657</v>
           </cell>
           <cell r="B33" t="str">
-            <v>Cagliari</v>
+            <v>Aston Villa</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Monza</v>
+            <v>Nott'm Forest</v>
           </cell>
           <cell r="D33">
-            <v>0.24476598767137089</v>
+            <v>0.33428775650564702</v>
           </cell>
           <cell r="E33">
-            <v>0.54874299443439778</v>
+            <v>0.18238417408808841</v>
           </cell>
           <cell r="F33">
-            <v>0.20649101789422791</v>
-          </cell>
-          <cell r="G33"/>
-          <cell r="H33"/>
-          <cell r="I33"/>
+            <v>0.48332806940626488</v>
+          </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>45746.583333333343</v>
+            <v>45752.75</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Getafe</v>
+            <v>Parma</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Villarreal</v>
+            <v>Inter</v>
           </cell>
           <cell r="D34">
-            <v>3.6218882153030887E-2</v>
+            <v>7.4261642233332384E-2</v>
           </cell>
           <cell r="E34">
-            <v>2.6092787715121111E-2</v>
+            <v>0.27855913421201539</v>
           </cell>
           <cell r="F34">
-            <v>0.93768833013184671</v>
-          </cell>
-          <cell r="G34"/>
-          <cell r="H34"/>
-          <cell r="I34"/>
+            <v>0.64717922355465118</v>
+          </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>45746.604166666657</v>
+            <v>45752.75</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Heracles</v>
+            <v>Arouca</v>
           </cell>
           <cell r="C35" t="str">
-            <v>Twente</v>
+            <v>Famalicao</v>
           </cell>
           <cell r="D35">
-            <v>0.88640835180756272</v>
+            <v>4.5613975433601663E-2</v>
           </cell>
           <cell r="E35">
-            <v>8.4490341986739992E-2</v>
+            <v>0.25886328586277002</v>
           </cell>
           <cell r="F35">
-            <v>2.910130620569714E-2</v>
-          </cell>
-          <cell r="G35"/>
-          <cell r="H35"/>
-          <cell r="I35"/>
+            <v>0.69552273870362913</v>
+          </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>45746.604166666657</v>
+            <v>45752.770833333343</v>
           </cell>
           <cell r="B36" t="str">
-            <v>Santa Clara</v>
+            <v>Werder Bremen</v>
           </cell>
           <cell r="C36" t="str">
-            <v>Nacional</v>
+            <v>Ein Frankfurt</v>
           </cell>
           <cell r="D36">
-            <v>0.67895254386437098</v>
+            <v>6.2394475401175951E-2</v>
           </cell>
           <cell r="E36">
-            <v>0.1298476264439293</v>
+            <v>0.19187998625414579</v>
           </cell>
           <cell r="F36">
-            <v>0.1911998296916983</v>
-          </cell>
-          <cell r="G36"/>
-          <cell r="H36"/>
-          <cell r="I36"/>
+            <v>0.74572553834467881</v>
+          </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>45746.604166666657</v>
+            <v>45752.770833333343</v>
           </cell>
           <cell r="B37" t="str">
-            <v>PSV Eindhoven</v>
+            <v>Mallorca</v>
           </cell>
           <cell r="C37" t="str">
-            <v>Ajax</v>
+            <v>Celta</v>
           </cell>
           <cell r="D37">
-            <v>0.87885160094910497</v>
+            <v>0.8106416089641163</v>
           </cell>
           <cell r="E37">
-            <v>0.1203859615716186</v>
+            <v>7.2829141552734455E-2</v>
           </cell>
           <cell r="F37">
-            <v>7.6243747927501576E-4</v>
-          </cell>
-          <cell r="G37"/>
-          <cell r="H37"/>
-          <cell r="I37"/>
+            <v>0.1165292494831494</v>
+          </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>45746.625</v>
+            <v>45752.78125</v>
           </cell>
           <cell r="B38" t="str">
-            <v>Toulouse</v>
+            <v>Twente</v>
           </cell>
           <cell r="C38" t="str">
-            <v>Brest</v>
+            <v>For Sittard</v>
           </cell>
           <cell r="D38">
-            <v>8.6652014379796E-2</v>
+            <v>0.66724402347914558</v>
           </cell>
           <cell r="E38">
-            <v>0.16468988953527131</v>
+            <v>0.24440739374339079</v>
           </cell>
           <cell r="F38">
-            <v>0.74865809608493195</v>
-          </cell>
-          <cell r="G38"/>
-          <cell r="H38"/>
-          <cell r="I38"/>
+            <v>8.8348582777463325E-2</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>45746.625</v>
+            <v>45752.791666666657</v>
           </cell>
           <cell r="B39" t="str">
-            <v>Fiorentina</v>
+            <v>Brest</v>
           </cell>
           <cell r="C39" t="str">
-            <v>Atalanta</v>
+            <v>Monaco</v>
           </cell>
           <cell r="D39">
-            <v>9.2045269810522635E-8</v>
+            <v>0.2402116946594503</v>
           </cell>
           <cell r="E39">
-            <v>3.9755151623852167E-2</v>
+            <v>0.2141734218448659</v>
           </cell>
           <cell r="F39">
-            <v>0.9602447563308778</v>
-          </cell>
-          <cell r="G39"/>
-          <cell r="H39"/>
-          <cell r="I39"/>
+            <v>0.54561488349568266</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>45746.645833333343</v>
+            <v>45752.854166666657</v>
           </cell>
           <cell r="B40" t="str">
-            <v>Freiburg</v>
+            <v>Guimaraes</v>
           </cell>
           <cell r="C40" t="str">
-            <v>Union Berlin</v>
+            <v>Santa Clara</v>
           </cell>
           <cell r="D40">
-            <v>0.71855283063764075</v>
+            <v>0.68804163062980239</v>
           </cell>
           <cell r="E40">
-            <v>0.16425784796554421</v>
+            <v>0.180742747455792</v>
           </cell>
           <cell r="F40">
-            <v>0.1171893213968152</v>
-          </cell>
-          <cell r="G40"/>
-          <cell r="H40"/>
-          <cell r="I40"/>
+            <v>0.131215621914404</v>
+          </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>45746.645833333343</v>
+            <v>45752.864583333343</v>
           </cell>
           <cell r="B41" t="str">
-            <v>Famalicao</v>
+            <v>Milan</v>
           </cell>
           <cell r="C41" t="str">
-            <v>AVS</v>
+            <v>Fiorentina</v>
           </cell>
           <cell r="D41">
-            <v>0.67068049461280099</v>
+            <v>0.6128155628114127</v>
           </cell>
           <cell r="E41">
-            <v>0.18209600298277639</v>
+            <v>0.24663603829338859</v>
           </cell>
           <cell r="F41">
-            <v>0.14722350240442231</v>
-          </cell>
-          <cell r="G41"/>
-          <cell r="H41"/>
-          <cell r="I41"/>
+            <v>0.1405483988951976</v>
+          </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>45746.677083333343</v>
+            <v>45752.875</v>
           </cell>
           <cell r="B42" t="str">
             <v>Barcelona</v>
           </cell>
           <cell r="C42" t="str">
-            <v>Girona</v>
+            <v>Betis</v>
           </cell>
           <cell r="D42">
-            <v>0.90091291475043045</v>
+            <v>0.98626975694885965</v>
           </cell>
           <cell r="E42">
-            <v>7.9174772846698466E-2</v>
+            <v>1.3691863199576789E-2</v>
           </cell>
           <cell r="F42">
-            <v>1.9912312402871491E-2</v>
-          </cell>
-          <cell r="G42"/>
-          <cell r="H42"/>
-          <cell r="I42"/>
+            <v>3.8379851563274417E-5</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>45746.697916666657</v>
+            <v>45752.875</v>
           </cell>
           <cell r="B43" t="str">
-            <v>Feyenoord</v>
+            <v>Almere City</v>
           </cell>
           <cell r="C43" t="str">
-            <v>Go Ahead Eagles</v>
+            <v>Zwolle</v>
           </cell>
           <cell r="D43">
-            <v>0.49301593321098092</v>
+            <v>0.22769999102349869</v>
           </cell>
           <cell r="E43">
-            <v>0.27823752157288112</v>
+            <v>0.1681214907500008</v>
           </cell>
           <cell r="F43">
-            <v>0.2287465452161393</v>
-          </cell>
-          <cell r="G43"/>
-          <cell r="H43"/>
-          <cell r="I43"/>
+            <v>0.60417851822650204</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>45746.71875</v>
+            <v>45752.878472222219</v>
           </cell>
           <cell r="B44" t="str">
-            <v>Angers</v>
+            <v>Lyon</v>
           </cell>
           <cell r="C44" t="str">
-            <v>Rennes</v>
+            <v>Lille</v>
           </cell>
           <cell r="D44">
-            <v>1.4730172814797829E-3</v>
+            <v>0.74251585321539559</v>
           </cell>
           <cell r="E44">
-            <v>0.60264291014485138</v>
+            <v>0.16889585878654059</v>
           </cell>
           <cell r="F44">
-            <v>0.39588407257366909</v>
-          </cell>
-          <cell r="G44"/>
-          <cell r="H44"/>
-          <cell r="I44"/>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>45746.71875</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>Auxerre</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>Montpellier</v>
-          </cell>
-          <cell r="D45">
-            <v>0.54777079670628837</v>
-          </cell>
-          <cell r="E45">
-            <v>0.33637918388822557</v>
-          </cell>
-          <cell r="F45">
-            <v>0.1158500194054858</v>
-          </cell>
-          <cell r="G45"/>
-          <cell r="H45"/>
-          <cell r="I45"/>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45746.71875</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>Le Havre</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>Nantes</v>
-          </cell>
-          <cell r="D46">
-            <v>8.0303252898326349E-2</v>
-          </cell>
-          <cell r="E46">
-            <v>0.26636575065905049</v>
-          </cell>
-          <cell r="F46">
-            <v>0.65333099644262316</v>
-          </cell>
-          <cell r="G46"/>
-          <cell r="H46"/>
-          <cell r="I46"/>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>45746.729166666657</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>Dortmund</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>Mainz</v>
-          </cell>
-          <cell r="D47">
-            <v>6.6124521435508746E-2</v>
-          </cell>
-          <cell r="E47">
-            <v>0.1145822119267929</v>
-          </cell>
-          <cell r="F47">
-            <v>0.81929326663769764</v>
-          </cell>
-          <cell r="G47"/>
-          <cell r="H47"/>
-          <cell r="I47"/>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>45746.75</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>Inter</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>Udinese</v>
-          </cell>
-          <cell r="D48">
-            <v>0.95508685357098622</v>
-          </cell>
-          <cell r="E48">
-            <v>4.3573174071916472E-2</v>
-          </cell>
-          <cell r="F48">
-            <v>1.339972357096735E-3</v>
-          </cell>
-          <cell r="G48"/>
-          <cell r="H48"/>
-          <cell r="I48"/>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>45746.75</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>Estoril</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>Porto</v>
-          </cell>
-          <cell r="D49">
-            <v>0.38813039324142018</v>
-          </cell>
-          <cell r="E49">
-            <v>0.25064919328846741</v>
-          </cell>
-          <cell r="F49">
-            <v>0.36122041347011402</v>
-          </cell>
-          <cell r="G49"/>
-          <cell r="H49"/>
-          <cell r="I49"/>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>45746.770833333343</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>Valencia</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>Mallorca</v>
-          </cell>
-          <cell r="D50">
-            <v>0.66730985901641215</v>
-          </cell>
-          <cell r="E50">
-            <v>0.1910336680885511</v>
-          </cell>
-          <cell r="F50">
-            <v>0.1416564728950383</v>
-          </cell>
-          <cell r="G50"/>
-          <cell r="H50"/>
-          <cell r="I50"/>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>45746.854166666657</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>Moreirense</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>Guimaraes</v>
-          </cell>
-          <cell r="D51">
-            <v>0.14875701542648859</v>
-          </cell>
-          <cell r="E51">
-            <v>0.37331531227825271</v>
-          </cell>
-          <cell r="F51">
-            <v>0.47792767229526018</v>
-          </cell>
-          <cell r="G51"/>
-          <cell r="H51"/>
-          <cell r="I51"/>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>45746.864583333343</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>Lille</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>Lens</v>
-          </cell>
-          <cell r="D52">
-            <v>0.73770334383671776</v>
-          </cell>
-          <cell r="E52">
-            <v>0.1329785623920724</v>
-          </cell>
-          <cell r="F52">
-            <v>0.12931809377120931</v>
-          </cell>
-          <cell r="G52"/>
-          <cell r="H52"/>
-          <cell r="I52"/>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>45746.864583333343</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>Napoli</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>Milan</v>
-          </cell>
-          <cell r="D53">
-            <v>0.19598044587191721</v>
-          </cell>
-          <cell r="E53">
-            <v>0.42325553986613063</v>
-          </cell>
-          <cell r="F53">
-            <v>0.38076401426195372</v>
-          </cell>
-          <cell r="G53"/>
-          <cell r="H53"/>
-          <cell r="I53"/>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>45746.875</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>Betis</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>Sevilla</v>
-          </cell>
-          <cell r="D54">
-            <v>0.74802232920650902</v>
-          </cell>
-          <cell r="E54">
-            <v>0.13837025177877341</v>
-          </cell>
-          <cell r="F54">
-            <v>0.1136074190147164</v>
-          </cell>
-          <cell r="G54"/>
-          <cell r="H54"/>
-          <cell r="I54"/>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>45747.770833333343</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>Verona</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>Parma</v>
-          </cell>
-          <cell r="D55">
-            <v>0.1210844676337513</v>
-          </cell>
-          <cell r="E55">
-            <v>0.24603056997176501</v>
-          </cell>
-          <cell r="F55">
-            <v>0.632884962394484</v>
-          </cell>
-          <cell r="G55"/>
-          <cell r="H55"/>
-          <cell r="I55"/>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>45747.864583333343</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>Lazio</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>Torino</v>
-          </cell>
-          <cell r="D56">
-            <v>0.88532247441544609</v>
-          </cell>
-          <cell r="E56">
-            <v>8.6707340548396197E-2</v>
-          </cell>
-          <cell r="F56">
-            <v>2.7970185036157381E-2</v>
-          </cell>
-          <cell r="G56"/>
-          <cell r="H56"/>
-          <cell r="I56"/>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>45747.875</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>Celta</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>Las Palmas</v>
-          </cell>
-          <cell r="D57">
-            <v>0.956456989732267</v>
-          </cell>
-          <cell r="E57">
-            <v>3.7281412824551607E-2</v>
-          </cell>
-          <cell r="F57">
-            <v>6.2615974431816353E-3</v>
-          </cell>
-          <cell r="G57"/>
-          <cell r="H57"/>
-          <cell r="I57"/>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>45748.822916666657</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>Arsenal</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>Fulham</v>
-          </cell>
-          <cell r="D58">
-            <v>0.48009588889741578</v>
-          </cell>
-          <cell r="E58">
-            <v>0.22446186150839309</v>
-          </cell>
-          <cell r="F58">
-            <v>0.29544224959419252</v>
-          </cell>
-          <cell r="G58"/>
-          <cell r="H58"/>
-          <cell r="I58"/>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>45748.833333333343</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>Nott'm Forest</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>Man United</v>
-          </cell>
-          <cell r="D59">
-            <v>0.63334841668024433</v>
-          </cell>
-          <cell r="E59">
-            <v>0.27304194732487991</v>
-          </cell>
-          <cell r="F59">
-            <v>9.3609635994876164E-2</v>
-          </cell>
-          <cell r="G59"/>
-          <cell r="H59"/>
-          <cell r="I59"/>
+            <v>8.8588287998062648E-2</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1747,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N59"/>
+  <dimension ref="A1:U59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C59" sqref="A55:C59"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1759,7 +1396,8 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="10" max="10" width="11.140625" style="3" customWidth="1"/>
     <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1788,7 +1426,7 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>A_gNB_prob</v>
       </c>
-      <c r="G1" t="str">
+      <c r="G1" s="3" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>H_odds</v>
       </c>
@@ -1800,7 +1438,7 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>A_odds</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K1" t="s">
@@ -1813,651 +1451,534 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45743.875</v>
+        <v>45748.822916666657</v>
       </c>
       <c r="B2" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Barcelona</v>
+        <v>Arsenal</v>
       </c>
       <c r="C2" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Osasuna</v>
+        <v>Fulham</v>
       </c>
       <c r="D2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.95069058462783007</v>
+        <v>0.48009588889741578</v>
       </c>
       <c r="E2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>4.5666990236142069E-2</v>
+        <v>0.22446186150839309</v>
       </c>
       <c r="F2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.642425136028915E-3</v>
-      </c>
-      <c r="G2">
-        <v>1.31</v>
-      </c>
-      <c r="H2">
-        <v>6.25</v>
-      </c>
-      <c r="I2">
-        <v>8.75</v>
-      </c>
-      <c r="J2" s="1">
+        <v>0.29544224959419252</v>
+      </c>
+      <c r="J2" s="4" t="str">
         <f>IF(G2=0,"",IF(D2&gt;=1/G2,(D2-1/G2)*10000/(G2-1)/7,0))</f>
-        <v>863.28021199021157</v>
-      </c>
-      <c r="K2" s="1">
+        <v/>
+      </c>
+      <c r="K2" s="1" t="str">
         <f t="shared" ref="K2:L2" si="0">IF(H2=0,"",IF(E2&gt;=1/H2,(E2-1/H2)*10000/(H2-1)/7,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+        <v/>
+      </c>
+      <c r="L2" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45744.84375</v>
+        <v>45748.833333333343</v>
       </c>
       <c r="B3" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Gil Vicente</v>
+        <v>AZ Alkmaar</v>
       </c>
       <c r="C3" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Benfica</v>
+        <v>Waalwijk</v>
       </c>
       <c r="D3">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.116093761831544E-5</v>
+        <v>0.45043032597087879</v>
       </c>
       <c r="E3">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.108760112771781E-2</v>
+        <v>0.20590736622698269</v>
       </c>
       <c r="F3">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.97888123793466542</v>
-      </c>
-      <c r="G3">
-        <v>7.5</v>
-      </c>
-      <c r="H3">
-        <v>4.75</v>
-      </c>
-      <c r="I3">
-        <v>1.41</v>
-      </c>
-      <c r="J3" s="1">
+        <v>0.34366230780213919</v>
+      </c>
+      <c r="J3" s="4" t="str">
         <f t="shared" ref="J3:J28" si="1">IF(G3=0,"",IF(D3&gt;=1/G3,(D3-1/G3)*10000/(G3-1)/7,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
+        <v/>
+      </c>
+      <c r="K3" s="1" t="str">
         <f t="shared" ref="K3:K28" si="2">IF(H3=0,"",IF(E3&gt;=1/H3,(E3-1/H3)*10000/(H3-1)/7,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
+        <v/>
+      </c>
+      <c r="L3" s="1" t="str">
         <f t="shared" ref="L3:L28" si="3">IF(I3=0,"",IF(F3&gt;=1/I3,(F3-1/I3)*10000/(I3-1)/7,0))</f>
-        <v>939.58668912417102</v>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45744.854166666657</v>
+        <v>45748.833333333343</v>
       </c>
       <c r="B4" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Leverkusen</v>
+        <v>Nott'm Forest</v>
       </c>
       <c r="C4" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Bochum</v>
+        <v>Man United</v>
       </c>
       <c r="D4">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.45550612799778678</v>
+        <v>0.56869786305998926</v>
       </c>
       <c r="E4">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1005301718032587</v>
+        <v>0.29200110025100862</v>
       </c>
       <c r="F4">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.44396370019895293</v>
-      </c>
-      <c r="G4">
-        <v>1.29</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
-        <v>10.5</v>
-      </c>
-      <c r="J4" s="1">
+        <v>0.13930103668900051</v>
+      </c>
+      <c r="J4" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
+        <v/>
+      </c>
+      <c r="K4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
+        <v/>
+      </c>
+      <c r="L4" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>52.439940595617699</v>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45744.864583333343</v>
+        <v>45748.84375</v>
       </c>
       <c r="B5" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Strasbourg</v>
+        <v>Boavista</v>
       </c>
       <c r="C5" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lyon</v>
+        <v>Gil Vicente</v>
       </c>
       <c r="D5">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.13964296092987399</v>
+        <v>0.27970833816080898</v>
       </c>
       <c r="E5">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29238304351123101</v>
+        <v>0.25751002932709899</v>
       </c>
       <c r="F5">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.56797399555889649</v>
-      </c>
-      <c r="G5">
-        <v>2.75</v>
-      </c>
-      <c r="H5">
-        <v>3.7</v>
-      </c>
-      <c r="I5">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="J5" s="1">
+        <v>0.46278163251209181</v>
+      </c>
+      <c r="J5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
+        <v/>
+      </c>
+      <c r="K5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>11.699880021672369</v>
-      </c>
-      <c r="L5" s="1">
+        <v/>
+      </c>
+      <c r="L5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>160.42348255147064</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45744.875</v>
+        <v>45749.822916666657</v>
       </c>
       <c r="B6" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ath Bilbao</v>
+        <v>Newcastle</v>
       </c>
       <c r="C6" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Osasuna</v>
+        <v>Brentford</v>
       </c>
       <c r="D6">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.99222276679813226</v>
+        <v>7.7568834403656927E-3</v>
       </c>
       <c r="E6">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.7680703179466848E-3</v>
+        <v>3.8966104102962022E-2</v>
       </c>
       <c r="F6">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.1628839217753024E-6</v>
-      </c>
-      <c r="G6">
-        <v>1.57</v>
-      </c>
-      <c r="H6">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I6">
-        <v>6.5</v>
-      </c>
-      <c r="J6" s="1">
+        <v>0.95327701245667074</v>
+      </c>
+      <c r="J6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>890.42629483432722</v>
-      </c>
-      <c r="K6" s="1">
+        <v/>
+      </c>
+      <c r="K6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+        <v/>
+      </c>
+      <c r="L6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.583333333343</v>
+        <v>45749.822916666657</v>
       </c>
       <c r="B7" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sociedad</v>
+        <v>Man City</v>
       </c>
       <c r="C7" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Valladolid</v>
+        <v>Leicester</v>
       </c>
       <c r="D7">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.60257025212334536</v>
+        <v>0.73404167156048927</v>
       </c>
       <c r="E7">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29762931148340638</v>
+        <v>0.1678528136578766</v>
       </c>
       <c r="F7">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.9800436393249786E-2</v>
-      </c>
-      <c r="G7">
-        <v>1.37</v>
-      </c>
-      <c r="H7">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="I7">
-        <v>10.5</v>
-      </c>
-      <c r="J7" s="1">
+        <v>9.8105514781632527E-2</v>
+      </c>
+      <c r="J7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
+        <v/>
+      </c>
+      <c r="K7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.93088848723454</v>
-      </c>
-      <c r="L7" s="1">
+        <v/>
+      </c>
+      <c r="L7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0.68606633912098558</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.625</v>
+        <v>45749.822916666657</v>
       </c>
       <c r="B8" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Como</v>
+        <v>Southampton</v>
       </c>
       <c r="C8" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Empoli</v>
+        <v>Crystal Palace</v>
       </c>
       <c r="D8">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.32458793188839152</v>
+        <v>7.8662655161190471E-4</v>
       </c>
       <c r="E8">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.27216618175122481</v>
+        <v>2.5652257096254811E-2</v>
       </c>
       <c r="F8">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.40324588636038328</v>
-      </c>
-      <c r="G8">
-        <v>1.8</v>
-      </c>
-      <c r="H8">
-        <v>3.5</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="1">
+        <v>0.97356111635213205</v>
+      </c>
+      <c r="J8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
+        <v/>
+      </c>
+      <c r="K8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+        <v/>
+      </c>
+      <c r="L8" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>72.587816557279737</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.625</v>
+        <v>45749.822916666657</v>
       </c>
       <c r="B9" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Venezia</v>
+        <v>Bournemouth</v>
       </c>
       <c r="C9" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Bologna</v>
+        <v>Ipswich</v>
       </c>
       <c r="D9">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.1642437086431804E-2</v>
+        <v>0.32935678080870401</v>
       </c>
       <c r="E9">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.15305320793884669</v>
+        <v>0.1654544583993712</v>
       </c>
       <c r="F9">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.76530435497472005</v>
-      </c>
-      <c r="G9">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="H9">
-        <v>3.6</v>
-      </c>
-      <c r="I9">
-        <v>1.86</v>
-      </c>
-      <c r="J9" s="1">
+        <v>0.50518876079192587</v>
+      </c>
+      <c r="J9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
+        <v/>
+      </c>
+      <c r="K9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
+        <v/>
+      </c>
+      <c r="L9" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>378.18927968865364</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.645833333343</v>
+        <v>45749.822916666657</v>
       </c>
       <c r="B10" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>M'gladbach</v>
+        <v>Brighton</v>
       </c>
       <c r="C10" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>RB Leipzig</v>
+        <v>Aston Villa</v>
       </c>
       <c r="D10">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.1591678460373491E-2</v>
+        <v>0.64926773759119016</v>
       </c>
       <c r="E10">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.33297643142625899</v>
+        <v>0.27866884268863878</v>
       </c>
       <c r="F10">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.61543189011336641</v>
-      </c>
-      <c r="G10">
-        <v>2.9</v>
-      </c>
-      <c r="H10">
-        <v>3.7</v>
-      </c>
-      <c r="I10">
-        <v>2.37</v>
-      </c>
-      <c r="J10" s="1">
+        <v>7.2063419720172314E-2</v>
+      </c>
+      <c r="J10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
+        <v/>
+      </c>
+      <c r="K10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>33.1778630454967</v>
-      </c>
-      <c r="L10" s="1">
+        <v/>
+      </c>
+      <c r="L10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>201.76325531107847</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.645833333343</v>
+        <v>45749.833333333343</v>
       </c>
       <c r="B11" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Casa Pia</v>
+        <v>Feyenoord</v>
       </c>
       <c r="C11" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Rio Ave</v>
+        <v>Groningen</v>
       </c>
       <c r="D11">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.61011820410828788</v>
+        <v>0.91708939075554596</v>
       </c>
       <c r="E11">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1985845931454627</v>
+        <v>5.4907463400560297E-2</v>
       </c>
       <c r="F11">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1912972027462477</v>
-      </c>
-      <c r="G11">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H11">
-        <v>3.3</v>
-      </c>
-      <c r="I11">
-        <v>3.35</v>
-      </c>
-      <c r="J11" s="1">
+        <v>2.8003145843892369E-2</v>
+      </c>
+      <c r="J11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>185.20565424146824</v>
-      </c>
-      <c r="K11" s="1">
+        <v/>
+      </c>
+      <c r="K11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
+        <v/>
+      </c>
+      <c r="L11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.645833333343</v>
+        <v>45749.833333333343</v>
       </c>
       <c r="B12" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Bayern Munich</v>
+        <v>Liverpool</v>
       </c>
       <c r="C12" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>St Pauli</v>
+        <v>Everton</v>
       </c>
       <c r="D12">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.99055357577561243</v>
+        <v>0.86878049330547369</v>
       </c>
       <c r="E12">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.433156101788279E-3</v>
+        <v>8.5471666277534816E-2</v>
       </c>
       <c r="F12">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.3268122598007771E-5</v>
-      </c>
-      <c r="G12">
-        <v>1.18</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-      <c r="I12">
-        <v>15.5</v>
-      </c>
-      <c r="J12" s="1">
+        <v>4.5747840416991779E-2</v>
+      </c>
+      <c r="J12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>1135.6821321981613</v>
-      </c>
-      <c r="K12" s="1">
+        <v/>
+      </c>
+      <c r="K12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+        <v/>
+      </c>
+      <c r="L12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.645833333343</v>
+        <v>45749.84375</v>
       </c>
       <c r="B13" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Holstein Kiel</v>
+        <v>Benfica</v>
       </c>
       <c r="C13" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Werder Bremen</v>
+        <v>Farense</v>
       </c>
       <c r="D13">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.0423129749233135E-2</v>
+        <v>0.99747727050567048</v>
       </c>
       <c r="E13">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.25700032507190251</v>
+        <v>2.521124579730616E-3</v>
       </c>
       <c r="F13">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.67257654517886267</v>
-      </c>
-      <c r="G13">
-        <v>3.2</v>
-      </c>
-      <c r="H13">
-        <v>3.75</v>
-      </c>
-      <c r="I13">
-        <v>2.19</v>
-      </c>
-      <c r="J13" s="1">
+        <v>1.604914598513395E-6</v>
+      </c>
+      <c r="J13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
+        <v/>
+      </c>
+      <c r="K13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
+        <v/>
+      </c>
+      <c r="L13" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>259.25034887473305</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.645833333343</v>
+        <v>45750.833333333343</v>
       </c>
       <c r="B14" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Hoffenheim</v>
+        <v>Chelsea</v>
       </c>
       <c r="C14" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Augsburg</v>
+        <v>Tottenham</v>
       </c>
       <c r="D14">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.0155814076152272E-2</v>
+        <v>0.93092550059533163</v>
       </c>
       <c r="E14">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.11214154547956499</v>
+        <v>5.2568324755210109E-2</v>
       </c>
       <c r="F14">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.8577026404442839</v>
-      </c>
-      <c r="G14">
-        <v>2.42</v>
-      </c>
-      <c r="H14">
-        <v>3.4</v>
-      </c>
-      <c r="I14">
-        <v>3.05</v>
-      </c>
-      <c r="J14" s="1">
+        <v>1.650617464945835E-2</v>
+      </c>
+      <c r="J14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
+        <v/>
+      </c>
+      <c r="K14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="1">
+        <v/>
+      </c>
+      <c r="L14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>369.22215190610979</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.645833333343</v>
+        <v>45751.833333333343</v>
       </c>
       <c r="B15" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Wolfsburg</v>
+        <v>Heerenveen</v>
       </c>
       <c r="C15" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Heidenheim</v>
+        <v>Willem II</v>
       </c>
       <c r="D15">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.4116384381944535</v>
+        <v>0.88403537627291462</v>
       </c>
       <c r="E15">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.2138302070608917</v>
+        <v>9.6357470122326538E-2</v>
       </c>
       <c r="F15">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.37453135474465421</v>
-      </c>
-      <c r="G15">
-        <v>1.7</v>
+        <v>1.960715360475877E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.49</v>
       </c>
       <c r="H15">
-        <v>4.0999999999999996</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>620.68348885014336</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
@@ -2465,93 +1986,93 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="3"/>
-        <v>62.332626694519362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.677083333343</v>
+        <v>45751.84375</v>
       </c>
       <c r="B16" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Espanol</v>
+        <v>AVS</v>
       </c>
       <c r="C16" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ath Madrid</v>
+        <v>Estoril</v>
       </c>
       <c r="D16">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.14061767661514579</v>
+        <v>0.16164359065281919</v>
       </c>
       <c r="E16">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.36442829832055279</v>
+        <v>0.30439043947839228</v>
       </c>
       <c r="F16">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.49495402506430042</v>
-      </c>
-      <c r="G16">
-        <v>5.5</v>
+        <v>0.53396596986878864</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.9</v>
       </c>
       <c r="H16">
-        <v>3.75</v>
+        <v>3.15</v>
       </c>
       <c r="I16">
-        <v>1.7</v>
-      </c>
-      <c r="J16" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
-        <v>50.785263196823962</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>130.11612473767519</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.6875</v>
+        <v>45751.854166666657</v>
       </c>
       <c r="B17" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>NAC Breda</v>
+        <v>Augsburg</v>
       </c>
       <c r="C17" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Groningen</v>
+        <v>Bayern Munich</v>
       </c>
       <c r="D17">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.4336429313476573</v>
+        <v>6.5414312038908615E-2</v>
       </c>
       <c r="E17">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1144860981593641</v>
+        <v>0.1911424929359653</v>
       </c>
       <c r="F17">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.45187097049297897</v>
-      </c>
-      <c r="G17">
-        <v>2.85</v>
+        <v>0.74344319502512757</v>
+      </c>
+      <c r="G17" s="3">
+        <v>7.5</v>
       </c>
       <c r="H17">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I17">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="J17" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="J17" s="4">
         <f t="shared" si="1"/>
-        <v>63.91176707737543</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
@@ -2559,93 +2080,95 @@
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
-        <v>52.860927634856672</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>181.71331731618801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.708333333343</v>
+        <v>45751.864583333343</v>
       </c>
       <c r="B18" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Reims</v>
+        <v>Genoa</v>
       </c>
       <c r="C18" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Marseille</v>
+        <v>Udinese</v>
       </c>
       <c r="D18">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.4081687800300706E-3</v>
+        <v>0.2149632075042083</v>
       </c>
       <c r="E18">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.350869774965961E-2</v>
+        <v>0.40204212855917942</v>
       </c>
       <c r="F18">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.92108313347031101</v>
-      </c>
-      <c r="G18">
-        <v>5.25</v>
+        <v>0.38299466393661152</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2.61</v>
       </c>
       <c r="H18">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="I18">
-        <v>1.63</v>
-      </c>
-      <c r="J18" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>54.055430882917754</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="3"/>
-        <v>697.47437858270666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <f>IF(I18=0,"",IF(F18&gt;=1/I18,(F18-1/I18)*10000/(I18-1)/7,0))</f>
+        <v>49.667304910750609</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.75</v>
+        <v>45751.864583333343</v>
       </c>
       <c r="B19" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Estrela</v>
+        <v>Nice</v>
       </c>
       <c r="C19" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sp Lisbon</v>
+        <v>Nantes</v>
       </c>
       <c r="D19">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.8555109754681086E-3</v>
+        <v>0.7600972215002999</v>
       </c>
       <c r="E19">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.726125311451183E-2</v>
+        <v>0.17229201557846871</v>
       </c>
       <c r="F19">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.96488323591001945</v>
-      </c>
-      <c r="G19">
-        <v>8.5</v>
+        <v>6.7610762921232345E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.55</v>
       </c>
       <c r="H19">
-        <v>4.8</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="I19">
-        <v>1.37</v>
-      </c>
-      <c r="J19" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>298.5348861758942</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="2"/>
@@ -2653,91 +2176,93 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="3"/>
-        <v>907.16690583300897</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.75</v>
+        <v>45751.875</v>
       </c>
       <c r="B20" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Juventus</v>
+        <v>Vallecano</v>
       </c>
       <c r="C20" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Genoa</v>
+        <v>Espanol</v>
       </c>
       <c r="D20">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.8206487479442609</v>
+        <v>0.35480788517338069</v>
       </c>
       <c r="E20">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.12293293896476661</v>
+        <v>0.41966594856366363</v>
       </c>
       <c r="F20">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.641831309097245E-2</v>
-      </c>
-      <c r="G20">
-        <v>1.59</v>
+        <v>0.22552616626295571</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1.86</v>
       </c>
       <c r="H20">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I20">
-        <v>6.75</v>
-      </c>
-      <c r="J20" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
-        <v>464.20806376319126</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>77.29737127092055</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+        <v>11.781504466139578</v>
+      </c>
+      <c r="R20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.770833333343</v>
+        <v>45752.520833333343</v>
       </c>
       <c r="B21" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ein Frankfurt</v>
+        <v>Everton</v>
       </c>
       <c r="C21" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Stuttgart</v>
+        <v>Arsenal</v>
       </c>
       <c r="D21">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.23430857059426149</v>
+        <v>1.185645553671493E-2</v>
       </c>
       <c r="E21">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.2398905356135837</v>
+        <v>0.1332467583217517</v>
       </c>
       <c r="F21">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.525800893792153</v>
-      </c>
-      <c r="G21">
-        <v>2.64</v>
+        <v>0.85489678614153186</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5.25</v>
       </c>
       <c r="H21">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="I21">
-        <v>2.69</v>
-      </c>
-      <c r="J21" s="1">
+        <v>1.79</v>
+      </c>
+      <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2747,44 +2272,44 @@
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>130.22289255810836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>535.69180517981363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.770833333343</v>
+        <v>45752.583333333343</v>
       </c>
       <c r="B22" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Girona</v>
+      </c>
+      <c r="C22" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
         <v>Alaves</v>
       </c>
-      <c r="C22" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Vallecano</v>
-      </c>
       <c r="D22">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.239716966726272E-2</v>
+        <v>0.1268182979181505</v>
       </c>
       <c r="E22">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.21259081414905651</v>
+        <v>0.15935133282998451</v>
       </c>
       <c r="F22">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.72501201618367961</v>
-      </c>
-      <c r="G22">
-        <v>2.1</v>
+        <v>0.71383036925186416</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2.11</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I22">
-        <v>4.45</v>
-      </c>
-      <c r="J22" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2794,46 +2319,46 @@
       </c>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>207.16062735407209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>229.93493597705211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.78125</v>
+        <v>45752.625</v>
       </c>
       <c r="B23" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Willem II</v>
+        <v>Monza</v>
       </c>
       <c r="C23" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Almere City</v>
+        <v>Como</v>
       </c>
       <c r="D23">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.12231879859023891</v>
+        <v>0.23640156609235</v>
       </c>
       <c r="E23">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.25650225889944939</v>
+        <v>0.20062867624022471</v>
       </c>
       <c r="F23">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.62117894251031247</v>
-      </c>
-      <c r="G23">
-        <v>2.59</v>
+        <v>0.56296975766742474</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
       </c>
       <c r="H23">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="I23">
-        <v>2.75</v>
-      </c>
-      <c r="J23" s="1">
+        <v>1.73</v>
+      </c>
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.000559318696423</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="2"/>
@@ -2841,91 +2366,91 @@
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>210.23883989710109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.78125</v>
+        <v>45752.625</v>
       </c>
       <c r="B24" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>For Sittard</v>
+        <v>West Ham</v>
       </c>
       <c r="C24" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sparta Rotterdam</v>
+        <v>Bournemouth</v>
       </c>
       <c r="D24">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1614732227945852</v>
+        <v>7.5929656452999603E-3</v>
       </c>
       <c r="E24">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.4093964940226455</v>
+        <v>0.13895002104819351</v>
       </c>
       <c r="F24">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.42913028318277008</v>
-      </c>
-      <c r="G24">
-        <v>2.9</v>
+        <v>0.85345701330650536</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3.05</v>
       </c>
       <c r="H24">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I24">
-        <v>2.42</v>
-      </c>
-      <c r="J24" s="1">
+        <v>2.37</v>
+      </c>
+      <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="2"/>
-        <v>67.409745493056761</v>
+        <v>0</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="3"/>
-        <v>16.003161656843357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>449.96463507451841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.791666666657</v>
+        <v>45752.625</v>
       </c>
       <c r="B25" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>St Etienne</v>
+        <v>Crystal Palace</v>
       </c>
       <c r="C25" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Paris SG</v>
+        <v>Brighton</v>
       </c>
       <c r="D25">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.274993634544066E-6</v>
+        <v>0.20801958532789319</v>
       </c>
       <c r="E25">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.2347552368576731E-3</v>
+        <v>0.27410184754842642</v>
       </c>
       <c r="F25">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.99276296976950928</v>
-      </c>
-      <c r="G25">
-        <v>14.5</v>
+        <v>0.51787856712367986</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2.46</v>
       </c>
       <c r="H25">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="I25">
-        <v>1.18</v>
-      </c>
-      <c r="J25" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2935,44 +2460,44 @@
       </c>
       <c r="L25" s="1">
         <f t="shared" si="3"/>
-        <v>1153.2170051655969</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>131.05898628294671</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.854166666657</v>
+        <v>45752.645833333343</v>
       </c>
       <c r="B26" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sp Braga</v>
+        <v>Heidenheim</v>
       </c>
       <c r="C26" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Arouca</v>
+        <v>Leverkusen</v>
       </c>
       <c r="D26">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1369387806162253</v>
+        <v>5.3585512814573432E-6</v>
       </c>
       <c r="E26">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.24281900145523189</v>
+        <v>2.2788357947858731E-2</v>
       </c>
       <c r="F26">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.62024221792854128</v>
-      </c>
-      <c r="G26">
-        <v>1.67</v>
+        <v>0.97720628350085958</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6.5</v>
       </c>
       <c r="H26">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2982,44 +2507,44 @@
       </c>
       <c r="L26" s="1">
         <f t="shared" si="3"/>
-        <v>150.08650640305044</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>887.25604809769425</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.864583333343</v>
+        <v>45752.645833333343</v>
       </c>
       <c r="B27" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lecce</v>
+        <v>Bochum</v>
       </c>
       <c r="C27" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Roma</v>
+        <v>Stuttgart</v>
       </c>
       <c r="D27">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.453420984259278E-3</v>
+        <v>0.34438407775364271</v>
       </c>
       <c r="E27">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.134508718150991E-2</v>
+        <v>0.20925187842142151</v>
       </c>
       <c r="F27">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.9072014918342296</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
+        <v>0.44636404382493561</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.7</v>
       </c>
       <c r="H27">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="I27">
-        <v>1.79</v>
-      </c>
-      <c r="J27" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3029,91 +2554,93 @@
       </c>
       <c r="L27" s="1">
         <f t="shared" si="3"/>
-        <v>630.27535977782031</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>47.719072669363342</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.875</v>
+        <v>45752.645833333343</v>
       </c>
       <c r="B28" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Zwolle</v>
+        <v>Mainz</v>
       </c>
       <c r="C28" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Waalwijk</v>
+        <v>Holstein Kiel</v>
       </c>
       <c r="D28">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.7641132289290969E-3</v>
+        <v>0.48927875577308078</v>
       </c>
       <c r="E28">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.22171506087447579</v>
+        <v>0.21193188392633569</v>
       </c>
       <c r="F28">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.77552082589659643</v>
-      </c>
-      <c r="G28">
-        <v>2.0499999999999998</v>
+        <v>0.29878936030058489</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.46</v>
       </c>
       <c r="H28">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="I28">
-        <v>3.45</v>
-      </c>
-      <c r="J28" s="1">
+        <v>7</v>
+      </c>
+      <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.3528385687978752</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="3"/>
-        <v>283.18702824071619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>37.126718438914779</v>
+      </c>
+      <c r="Q28" s="5"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.875</v>
+        <v>45752.645833333343</v>
       </c>
       <c r="B29" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nijmegen</v>
+        <v>RB Leipzig</v>
       </c>
       <c r="C29" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>AZ Alkmaar</v>
+        <v>Hoffenheim</v>
       </c>
       <c r="D29">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.2362957120896017E-2</v>
+        <v>0.42476289082163599</v>
       </c>
       <c r="E29">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.18612566885638429</v>
+        <v>0.13595108841260489</v>
       </c>
       <c r="F29">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.76151137402271829</v>
-      </c>
-      <c r="G29">
-        <v>3.9</v>
+        <v>0.43928602076575912</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1.63</v>
       </c>
       <c r="H29">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="I29">
-        <v>1.95</v>
-      </c>
-      <c r="J29" s="1">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
         <f t="shared" ref="J29:J33" si="4">IF(G29=0,"",IF(D29&gt;=1/G29,(D29-1/G29)*10000/(G29-1)/7,0))</f>
         <v>0</v>
       </c>
@@ -3123,93 +2650,93 @@
       </c>
       <c r="L29" s="1">
         <f t="shared" ref="L29:L33" si="6">IF(I29=0,"",IF(F29&gt;=1/I29,(F29-1/I29)*10000/(I29-1)/7,0))</f>
-        <v>373.97121985294046</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85.459293130628254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.875</v>
+        <v>45752.645833333343</v>
       </c>
       <c r="B30" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Real Madrid</v>
+        <v>Freiburg</v>
       </c>
       <c r="C30" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Leganes</v>
+        <v>Dortmund</v>
       </c>
       <c r="D30">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.95979744503624587</v>
+        <v>0.12217609630160189</v>
       </c>
       <c r="E30">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.7406001409903862E-2</v>
+        <v>0.51144344494300975</v>
       </c>
       <c r="F30">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.7965535538507029E-3</v>
-      </c>
-      <c r="G30">
-        <v>1.18</v>
+        <v>0.36638045875538838</v>
+      </c>
+      <c r="G30" s="3">
+        <v>3.25</v>
       </c>
       <c r="H30">
-        <v>7.75</v>
+        <v>3.55</v>
       </c>
       <c r="I30">
-        <v>17</v>
-      </c>
-      <c r="J30" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="4"/>
-        <v>891.58585648890289</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>128.71333562909768</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45745.878472222219</v>
+        <v>45752.677083333343</v>
       </c>
       <c r="B31" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Monaco</v>
+        <v>Real Madrid</v>
       </c>
       <c r="C31" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nice</v>
+        <v>Valencia</v>
       </c>
       <c r="D31">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.9931224862581769</v>
+        <v>0.97714815243285846</v>
       </c>
       <c r="E31">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.8712511260219794E-3</v>
+        <v>2.075227890055362E-2</v>
       </c>
       <c r="F31">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.262615804121906E-6</v>
-      </c>
-      <c r="G31">
-        <v>1.99</v>
+        <v>2.0995686665883132E-3</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.3</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>3.85</v>
-      </c>
-      <c r="J31" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="J31" s="4">
         <f t="shared" si="4"/>
-        <v>707.9508274806733</v>
+        <v>990.08277715280599</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="5"/>
@@ -3220,43 +2747,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.510416666657</v>
+        <v>45752.708333333343</v>
       </c>
       <c r="B32" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Utrecht</v>
+        <v>Paris SG</v>
       </c>
       <c r="C32" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Heerenveen</v>
+        <v>Angers</v>
       </c>
       <c r="D32">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.77161841008621102</v>
+        <v>0.99592699428468012</v>
       </c>
       <c r="E32">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.0051281425164123E-2</v>
+        <v>4.0294584757744429E-3</v>
       </c>
       <c r="F32">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.13833030848862349</v>
-      </c>
-      <c r="G32">
-        <v>1.84</v>
+        <v>4.3547239544774738E-5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.1399999999999999</v>
       </c>
       <c r="H32">
-        <v>3.7</v>
+        <v>9.5</v>
       </c>
       <c r="I32">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="J32" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="J32" s="4">
         <f t="shared" si="4"/>
-        <v>387.99345104871736</v>
+        <v>1211.5715492708143</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="5"/>
@@ -3270,135 +2797,135 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.520833333343</v>
+        <v>45752.729166666657</v>
       </c>
       <c r="B33" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Cagliari</v>
+        <v>Aston Villa</v>
       </c>
       <c r="C33" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Monza</v>
+        <v>Nott'm Forest</v>
       </c>
       <c r="D33">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.24476598767137089</v>
+        <v>0.33428775650564702</v>
       </c>
       <c r="E33">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.54874299443439778</v>
+        <v>0.18238417408808841</v>
       </c>
       <c r="F33">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.20649101789422791</v>
-      </c>
-      <c r="G33">
-        <v>1.78</v>
+        <v>0.48332806940626488</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2.0499999999999998</v>
       </c>
       <c r="H33">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I33">
-        <v>5</v>
-      </c>
-      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="J33" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="5"/>
-        <v>148.88198717396702</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="6"/>
-        <v>2.3182206765099651</v>
+        <v>111.10860447917375</v>
       </c>
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.583333333343</v>
+        <v>45752.75</v>
       </c>
       <c r="B34" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Getafe</v>
+        <v>Parma</v>
       </c>
       <c r="C34" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Villarreal</v>
+        <v>Inter</v>
       </c>
       <c r="D34">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.6218882153030887E-2</v>
+        <v>7.4261642233332384E-2</v>
       </c>
       <c r="E34">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.6092787715121111E-2</v>
+        <v>0.27855913421201539</v>
       </c>
       <c r="F34">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.93768833013184671</v>
-      </c>
-      <c r="G34">
-        <v>3.5</v>
+        <v>0.64717922355465118</v>
+      </c>
+      <c r="G34" s="3">
+        <v>7.25</v>
       </c>
       <c r="H34">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="I34">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="J34" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" ref="J34:J59" si="7">IF(G34=0,"",IF(D34&gt;=1/G34,(D34-1/G34)*10000/(G34-1)/7,0))</f>
         <v>0</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" ref="K34:K59" si="8">IF(H34=0,"",IF(E34&gt;=1/H34,(E34-1/H34)*10000/(H34-1)/7,0))</f>
-        <v>0</v>
+        <v>25.917264160968273</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" ref="L34:L59" si="9">IF(I34=0,"",IF(F34&gt;=1/I34,(F34-1/I34)*10000/(I34-1)/7,0))</f>
-        <v>548.32667464634858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.604166666657</v>
+        <v>45752.75</v>
       </c>
       <c r="B35" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Heracles</v>
+        <v>Arouca</v>
       </c>
       <c r="C35" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Twente</v>
+        <v>Famalicao</v>
       </c>
       <c r="D35">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.88640835180756272</v>
+        <v>4.5613975433601663E-2</v>
       </c>
       <c r="E35">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.4490341986739992E-2</v>
+        <v>0.25886328586277002</v>
       </c>
       <c r="F35">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.910130620569714E-2</v>
-      </c>
-      <c r="G35">
-        <v>4.05</v>
+        <v>0.69552273870362913</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2.7</v>
       </c>
       <c r="H35">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I35">
-        <v>1.85</v>
-      </c>
-      <c r="J35" s="1">
+        <v>2.69</v>
+      </c>
+      <c r="J35" s="4">
         <f t="shared" si="7"/>
-        <v>299.52916700732982</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="8"/>
@@ -3406,46 +2933,46 @@
       </c>
       <c r="L35" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>273.69021708175683</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.604166666657</v>
+        <v>45752.770833333343</v>
       </c>
       <c r="B36" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Santa Clara</v>
+        <v>Werder Bremen</v>
       </c>
       <c r="C36" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nacional</v>
+        <v>Ein Frankfurt</v>
       </c>
       <c r="D36">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.67895254386437098</v>
+        <v>6.2394475401175951E-2</v>
       </c>
       <c r="E36">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1298476264439293</v>
+        <v>0.19187998625414579</v>
       </c>
       <c r="F36">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1911998296916983</v>
-      </c>
-      <c r="G36">
-        <v>1.77</v>
+        <v>0.74572553834467881</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2.2999999999999998</v>
       </c>
       <c r="H36">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4">
         <f t="shared" si="7"/>
-        <v>211.46714740619964</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="8"/>
@@ -3453,46 +2980,46 @@
       </c>
       <c r="L36" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>294.56586072238963</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.604166666657</v>
+        <v>45752.770833333343</v>
       </c>
       <c r="B37" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>PSV Eindhoven</v>
+        <v>Mallorca</v>
       </c>
       <c r="C37" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ajax</v>
+        <v>Celta</v>
       </c>
       <c r="D37">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.87885160094910497</v>
+        <v>0.8106416089641163</v>
       </c>
       <c r="E37">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1203859615716186</v>
+        <v>7.2829141552734455E-2</v>
       </c>
       <c r="F37">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.6243747927501576E-4</v>
-      </c>
-      <c r="G37">
-        <v>1.52</v>
+        <v>0.1165292494831494</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2.66</v>
       </c>
       <c r="H37">
-        <v>4.6500000000000004</v>
+        <v>3.15</v>
       </c>
       <c r="I37">
-        <v>5.5</v>
-      </c>
-      <c r="J37" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="J37" s="4">
         <f t="shared" si="7"/>
-        <v>607.02435194230679</v>
+        <v>374.09789960417913</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="8"/>
@@ -3506,85 +3033,85 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.625</v>
+        <v>45752.78125</v>
       </c>
       <c r="B38" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Toulouse</v>
+        <v>Twente</v>
       </c>
       <c r="C38" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Brest</v>
+        <v>For Sittard</v>
       </c>
       <c r="D38">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.6652014379796E-2</v>
+        <v>0.66724402347914558</v>
       </c>
       <c r="E38">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.16468988953527131</v>
+        <v>0.24440739374339079</v>
       </c>
       <c r="F38">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.74865809608493195</v>
-      </c>
-      <c r="G38">
-        <v>2.13</v>
+        <v>8.8348582777463325E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.42</v>
       </c>
       <c r="H38">
-        <v>3.35</v>
+        <v>4.8</v>
       </c>
       <c r="I38">
-        <v>3.75</v>
-      </c>
-      <c r="J38" s="1">
+        <v>7</v>
+      </c>
+      <c r="J38" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>13.561676845886259</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="9"/>
-        <v>250.38515813935859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.625</v>
+        <v>45752.791666666657</v>
       </c>
       <c r="B39" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Fiorentina</v>
+        <v>Brest</v>
       </c>
       <c r="C39" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Atalanta</v>
+        <v>Monaco</v>
       </c>
       <c r="D39">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.2045269810522635E-8</v>
+        <v>0.2402116946594503</v>
       </c>
       <c r="E39">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.9755151623852167E-2</v>
+        <v>0.2141734218448659</v>
       </c>
       <c r="F39">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.9602447563308778</v>
-      </c>
-      <c r="G39">
-        <v>3.55</v>
+        <v>0.54561488349568266</v>
+      </c>
+      <c r="G39" s="3">
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I39">
-        <v>2.15</v>
-      </c>
-      <c r="J39" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J39" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3594,46 +3121,46 @@
       </c>
       <c r="L39" s="1">
         <f t="shared" si="9"/>
-        <v>615.06643138026141</v>
+        <v>30.633482574600759</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.645833333343</v>
+        <v>45752.854166666657</v>
       </c>
       <c r="B40" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Freiburg</v>
+        <v>Guimaraes</v>
       </c>
       <c r="C40" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Union Berlin</v>
+        <v>Santa Clara</v>
       </c>
       <c r="D40">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.71855283063764075</v>
+        <v>0.68804163062980239</v>
       </c>
       <c r="E40">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.16425784796554421</v>
+        <v>0.180742747455792</v>
       </c>
       <c r="F40">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1171893213968152</v>
-      </c>
-      <c r="G40">
-        <v>2.0499999999999998</v>
+        <v>0.131215621914404</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.99</v>
       </c>
       <c r="H40">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="I40">
-        <v>4</v>
-      </c>
-      <c r="J40" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="J40" s="4">
         <f t="shared" si="7"/>
-        <v>313.94279263790503</v>
+        <v>267.71871257681397</v>
       </c>
       <c r="K40" s="1">
         <f t="shared" si="8"/>
@@ -3647,40 +3174,40 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.645833333343</v>
+        <v>45752.864583333343</v>
       </c>
       <c r="B41" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Famalicao</v>
+        <v>Milan</v>
       </c>
       <c r="C41" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>AVS</v>
+        <v>Fiorentina</v>
       </c>
       <c r="D41">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.67068049461280099</v>
+        <v>0.6128155628114127</v>
       </c>
       <c r="E41">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.18209600298277639</v>
+        <v>0.24663603829338859</v>
       </c>
       <c r="F41">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.14722350240442231</v>
-      </c>
-      <c r="G41">
-        <v>1.71</v>
+        <v>0.1405483988951976</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1.92</v>
       </c>
       <c r="H41">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I41">
-        <v>5</v>
-      </c>
-      <c r="J41" s="1">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="J41" s="4">
         <f t="shared" si="7"/>
-        <v>172.80718908525981</v>
+        <v>142.82954887900519</v>
       </c>
       <c r="K41" s="1">
         <f t="shared" si="8"/>
@@ -3694,7 +3221,7 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.677083333343</v>
+        <v>45752.875</v>
       </c>
       <c r="B42" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
@@ -3702,32 +3229,32 @@
       </c>
       <c r="C42" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Girona</v>
+        <v>Betis</v>
       </c>
       <c r="D42">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.90091291475043045</v>
+        <v>0.98626975694885965</v>
       </c>
       <c r="E42">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.9174772846698466E-2</v>
+        <v>1.3691863199576789E-2</v>
       </c>
       <c r="F42">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.9912312402871491E-2</v>
-      </c>
-      <c r="G42">
-        <v>1.94</v>
+        <v>3.8379851563274417E-5</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.46</v>
       </c>
       <c r="H42">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="I42">
-        <v>4.45</v>
-      </c>
-      <c r="J42" s="1">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4">
         <f t="shared" si="7"/>
-        <v>585.78874958154586</v>
+        <v>935.83307484330635</v>
       </c>
       <c r="K42" s="1">
         <f t="shared" si="8"/>
@@ -3741,91 +3268,91 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.697916666657</v>
+        <v>45752.875</v>
       </c>
       <c r="B43" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Feyenoord</v>
+        <v>Almere City</v>
       </c>
       <c r="C43" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Go Ahead Eagles</v>
+        <v>Zwolle</v>
       </c>
       <c r="D43">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.49301593321098092</v>
+        <v>0.22769999102349869</v>
       </c>
       <c r="E43">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.27823752157288112</v>
+        <v>0.1681214907500008</v>
       </c>
       <c r="F43">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.2287465452161393</v>
-      </c>
-      <c r="G43">
-        <v>1.49</v>
+        <v>0.60417851822650204</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2.2799999999999998</v>
       </c>
       <c r="H43">
-        <v>4.6500000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="I43">
-        <v>6</v>
-      </c>
-      <c r="J43" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="J43" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K43" s="1">
         <f t="shared" si="8"/>
-        <v>24.729455237581579</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="9"/>
-        <v>17.737108156992182</v>
+        <v>191.56317895592633</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.71875</v>
+        <v>45752.878472222219</v>
       </c>
       <c r="B44" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Angers</v>
+        <v>Lyon</v>
       </c>
       <c r="C44" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Rennes</v>
+        <v>Lille</v>
       </c>
       <c r="D44">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.4730172814797829E-3</v>
+        <v>0.74251585321539559</v>
       </c>
       <c r="E44">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.60264291014485138</v>
+        <v>0.16889585878654059</v>
       </c>
       <c r="F44">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.39588407257366909</v>
-      </c>
-      <c r="G44">
-        <v>3.9</v>
+        <v>8.8588287998062648E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2.34</v>
       </c>
       <c r="H44">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="I44">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="J44" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="J44" s="4">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>335.99725571958237</v>
       </c>
       <c r="K44" s="1">
         <f t="shared" si="8"/>
-        <v>182.38357882278905</v>
+        <v>0</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="9"/>
@@ -3835,710 +3362,572 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.71875</v>
-      </c>
-      <c r="B45" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Auxerre</v>
-      </c>
-      <c r="C45" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Montpellier</v>
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D45">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.54777079670628837</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.33637918388822557</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1158500194054858</v>
-      </c>
-      <c r="G45">
-        <v>1.77</v>
-      </c>
-      <c r="H45">
-        <v>4</v>
-      </c>
-      <c r="I45">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
+        <v/>
+      </c>
+      <c r="K45" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>41.132944708678849</v>
-      </c>
-      <c r="L45" s="1">
+        <v/>
+      </c>
+      <c r="L45" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.71875</v>
-      </c>
-      <c r="B46" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Le Havre</v>
-      </c>
-      <c r="C46" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nantes</v>
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D46">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.0303252898326349E-2</v>
+        <v>0</v>
       </c>
       <c r="E46">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.26636575065905049</v>
+        <v>0</v>
       </c>
       <c r="F46">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.65333099644262316</v>
-      </c>
-      <c r="G46">
-        <v>3.05</v>
-      </c>
-      <c r="H46">
-        <v>3.3</v>
-      </c>
-      <c r="I46">
-        <v>2.46</v>
-      </c>
-      <c r="J46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K46" s="1">
+        <v/>
+      </c>
+      <c r="K46" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="1">
+        <v/>
+      </c>
+      <c r="L46" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>241.51363150877961</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.729166666657</v>
-      </c>
-      <c r="B47" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Dortmund</v>
-      </c>
-      <c r="C47" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Mainz</v>
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D47">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.6124521435508746E-2</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1145822119267929</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.81929326663769764</v>
-      </c>
-      <c r="G47">
-        <v>1.66</v>
-      </c>
-      <c r="H47">
-        <v>4.45</v>
-      </c>
-      <c r="I47">
-        <v>5.25</v>
-      </c>
-      <c r="J47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="1">
+        <v/>
+      </c>
+      <c r="K47" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="1">
+        <v/>
+      </c>
+      <c r="L47" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>211.36708442403602</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.75</v>
-      </c>
-      <c r="B48" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Inter</v>
-      </c>
-      <c r="C48" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Udinese</v>
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D48">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.95508685357098622</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>4.3573174071916472E-2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.339972357096735E-3</v>
-      </c>
-      <c r="G48">
-        <v>1.43</v>
-      </c>
-      <c r="H48">
-        <v>4.7</v>
-      </c>
-      <c r="I48">
-        <v>8.25</v>
-      </c>
-      <c r="J48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>849.78788794115246</v>
-      </c>
-      <c r="K48" s="1">
+        <v/>
+      </c>
+      <c r="K48" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="1">
+        <v/>
+      </c>
+      <c r="L48" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.75</v>
-      </c>
-      <c r="B49" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Estoril</v>
-      </c>
-      <c r="C49" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Porto</v>
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D49">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.38813039324142018</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.25064919328846741</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.36122041347011402</v>
-      </c>
-      <c r="G49">
-        <v>6</v>
-      </c>
-      <c r="H49">
-        <v>4.05</v>
-      </c>
-      <c r="I49">
-        <v>1.55</v>
-      </c>
-      <c r="J49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>63.275350449929583</v>
-      </c>
-      <c r="K49" s="1">
+        <v/>
+      </c>
+      <c r="K49" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>1.7497016588074072</v>
-      </c>
-      <c r="L49" s="1">
+        <v/>
+      </c>
+      <c r="L49" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.770833333343</v>
-      </c>
-      <c r="B50" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Valencia</v>
-      </c>
-      <c r="C50" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Mallorca</v>
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D50">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.66730985901641215</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1910336680885511</v>
+        <v>0</v>
       </c>
       <c r="F50">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1416564728950383</v>
-      </c>
-      <c r="G50">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H50">
-        <v>2.63</v>
-      </c>
-      <c r="I50">
-        <v>4.5</v>
-      </c>
-      <c r="J50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="4" t="str">
         <f>IF(G50=0,"",IF(D50&gt;=1/G50,(D50-1/G50)*10000/(G50-1)/7,0))</f>
-        <v>254.91154524967968</v>
-      </c>
-      <c r="K50" s="1">
+        <v/>
+      </c>
+      <c r="K50" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="1">
+        <v/>
+      </c>
+      <c r="L50" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="1">
-        <f>SUM(J49:L54)</f>
-        <v>1218.3374213851521</v>
-      </c>
+        <v/>
+      </c>
+      <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.854166666657</v>
-      </c>
-      <c r="B51" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Moreirense</v>
-      </c>
-      <c r="C51" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Guimaraes</v>
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D51">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.14875701542648859</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.37331531227825271</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.47792767229526018</v>
-      </c>
-      <c r="G51">
-        <v>3.6</v>
-      </c>
-      <c r="H51">
-        <v>3.15</v>
-      </c>
-      <c r="I51">
-        <v>2.19</v>
-      </c>
-      <c r="J51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K51" s="1">
+        <v/>
+      </c>
+      <c r="K51" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>37.112953367398852</v>
-      </c>
-      <c r="L51" s="1">
+        <v/>
+      </c>
+      <c r="L51" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>25.578232567887277</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.864583333343</v>
-      </c>
-      <c r="B52" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lille</v>
-      </c>
-      <c r="C52" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lens</v>
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D52">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.73770334383671776</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1329785623920724</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.12931809377120931</v>
-      </c>
-      <c r="G52">
-        <v>2.1</v>
-      </c>
-      <c r="H52">
-        <v>3.4</v>
-      </c>
-      <c r="I52">
-        <v>3.8</v>
-      </c>
-      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>339.62710083927476</v>
-      </c>
-      <c r="K52" s="1">
+        <v/>
+      </c>
+      <c r="K52" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="1">
+        <v/>
+      </c>
+      <c r="L52" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.864583333343</v>
-      </c>
-      <c r="B53" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Napoli</v>
-      </c>
-      <c r="C53" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Milan</v>
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D53">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.19598044587191721</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.42325553986613063</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.38076401426195372</v>
-      </c>
-      <c r="G53">
-        <v>2</v>
-      </c>
-      <c r="H53">
-        <v>3.65</v>
-      </c>
-      <c r="I53">
-        <v>4.2</v>
-      </c>
-      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="1">
+        <v/>
+      </c>
+      <c r="K53" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>80.475976887549663</v>
-      </c>
-      <c r="L53" s="1">
+        <v/>
+      </c>
+      <c r="L53" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>63.691417931569482</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45746.875</v>
-      </c>
-      <c r="B54" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Betis</v>
-      </c>
-      <c r="C54" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sevilla</v>
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D54">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.74802232920650902</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.13837025177877341</v>
+        <v>0</v>
       </c>
       <c r="F54">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1136074190147164</v>
-      </c>
-      <c r="G54">
-        <v>1.9</v>
-      </c>
-      <c r="H54">
-        <v>3.4</v>
-      </c>
-      <c r="I54">
-        <v>4.7</v>
-      </c>
-      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>351.91514243305534</v>
-      </c>
-      <c r="K54" s="1">
+        <v/>
+      </c>
+      <c r="K54" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="1">
+        <v/>
+      </c>
+      <c r="L54" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45747.770833333343</v>
-      </c>
-      <c r="B55" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Verona</v>
-      </c>
-      <c r="C55" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Parma</v>
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D55">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1210844676337513</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.24603056997176501</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.632884962394484</v>
-      </c>
-      <c r="G55">
-        <v>2.64</v>
-      </c>
-      <c r="H55">
-        <v>3.15</v>
-      </c>
-      <c r="I55">
-        <v>3.15</v>
-      </c>
-      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K55" s="1">
+        <v/>
+      </c>
+      <c r="K55" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="1">
+        <v/>
+      </c>
+      <c r="L55" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>209.5844816838316</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45747.864583333343</v>
-      </c>
-      <c r="B56" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lazio</v>
-      </c>
-      <c r="C56" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Torino</v>
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D56">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.88532247441544609</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.6707340548396197E-2</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.7970185036157381E-2</v>
-      </c>
-      <c r="G56">
-        <v>1.88</v>
-      </c>
-      <c r="H56">
-        <v>3.7</v>
-      </c>
-      <c r="I56">
-        <v>4.8</v>
-      </c>
-      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>573.71360519224811</v>
-      </c>
-      <c r="K56" s="1">
+        <v/>
+      </c>
+      <c r="K56" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="1">
+        <v/>
+      </c>
+      <c r="L56" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45747.875</v>
-      </c>
-      <c r="B57" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Celta</v>
-      </c>
-      <c r="C57" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Las Palmas</v>
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D57">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.956456989732267</v>
+        <v>0</v>
       </c>
       <c r="E57">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.7281412824551607E-2</v>
+        <v>0</v>
       </c>
       <c r="F57">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.2615974431816353E-3</v>
-      </c>
-      <c r="G57">
-        <v>1.63</v>
-      </c>
-      <c r="H57">
-        <v>4.3</v>
-      </c>
-      <c r="I57">
-        <v>6</v>
-      </c>
-      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>777.68720457353663</v>
-      </c>
-      <c r="K57" s="1">
+        <v/>
+      </c>
+      <c r="K57" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="1">
+        <v/>
+      </c>
+      <c r="L57" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45748.822916666657</v>
-      </c>
-      <c r="B58" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Arsenal</v>
-      </c>
-      <c r="C58" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Fulham</v>
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D58">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.48009588889741578</v>
+        <v>0</v>
       </c>
       <c r="E58">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.22446186150839309</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29544224959419252</v>
-      </c>
-      <c r="G58">
-        <v>1.45</v>
-      </c>
-      <c r="H58">
-        <v>4.5</v>
-      </c>
-      <c r="I58">
-        <v>8</v>
-      </c>
-      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="1">
+        <v/>
+      </c>
+      <c r="K58" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0.91413848415137977</v>
-      </c>
-      <c r="L58" s="1">
+        <v/>
+      </c>
+      <c r="L58" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>34.784132570243372</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45748.833333333343</v>
-      </c>
-      <c r="B59" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nott'm Forest</v>
-      </c>
-      <c r="C59" t="str">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Man United</v>
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>0</v>
       </c>
       <c r="D59">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.63334841668024433</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.27304194732487991</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>9.3609635994876164E-2</v>
-      </c>
-      <c r="G59">
-        <v>2.35</v>
-      </c>
-      <c r="H59">
-        <v>3.45</v>
-      </c>
-      <c r="I59">
-        <v>3.15</v>
-      </c>
-      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>219.91164210225111</v>
-      </c>
-      <c r="K59" s="1">
+        <v/>
+      </c>
+      <c r="K59" s="1" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
+        <v/>
+      </c>
+      <c r="L59" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/ML_PL_new/realbet.xlsx
+++ b/ML_PL_new/realbet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\.Data files\TSDP\ML_PL_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\..Data\TSDP\ML_PL_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756B2C3-D1D4-4420-B6C3-93F1A45A26C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/\ m/\ d\.\ h:mm;@"/>
   </numFmts>
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1195,24 +1194,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="A26" sqref="A26:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" customWidth="1"/>
-    <col min="11" max="12" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>Date</v>
@@ -1259,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.520833333343</v>
@@ -1306,7 +1305,7 @@
         <v>64.243081686468742</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.541666666657</v>
@@ -1353,7 +1352,7 @@
         <v>175.33974360659155</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.583333333343</v>
@@ -1400,7 +1399,7 @@
         <v>1.0354555173104629</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.583333333343</v>
@@ -1447,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.583333333343</v>
@@ -1494,7 +1493,7 @@
         <v>419.19793241480511</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.604166666657</v>
@@ -1541,7 +1540,7 @@
         <v>228.81911894308755</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.604166666657</v>
@@ -1588,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.625</v>
@@ -1635,7 +1634,7 @@
         <v>46.563509950590607</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.625</v>
@@ -1682,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.625</v>
@@ -1729,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.645833333343</v>
@@ -1776,7 +1775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.645833333343</v>
@@ -1823,7 +1822,7 @@
         <v>407.16498034293187</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.677083333343</v>
@@ -1870,7 +1869,7 @@
         <v>455.15044567098147</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.6875</v>
@@ -1917,7 +1916,7 @@
         <v>94.884997781578747</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.697916666657</v>
@@ -1964,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.71875</v>
@@ -2011,7 +2010,7 @@
         <v>577.99797941669192</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.71875</v>
@@ -2058,7 +2057,7 @@
         <v>419.14526121654893</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.71875</v>
@@ -2105,7 +2104,7 @@
         <v>211.47360057816746</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.729166666657</v>
@@ -2152,7 +2151,7 @@
         <v>328.84480567361879</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.75</v>
@@ -2199,7 +2198,7 @@
         <v>99.810376666784379</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.770833333343</v>
@@ -2237,7 +2236,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.864583333343</v>
@@ -2275,7 +2274,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.864583333343</v>
@@ -2313,7 +2312,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45753.875</v>
@@ -2351,7 +2350,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45754.78125</v>
@@ -2376,20 +2375,29 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0.68941614827637343</v>
       </c>
-      <c r="J26" s="1" t="str">
+      <c r="G26">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H26">
+        <v>3.15</v>
+      </c>
+      <c r="I26">
+        <v>2.9</v>
+      </c>
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K26" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L26" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+        <v>259.0891444131405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45754.833333333343</v>
@@ -2414,20 +2422,29 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0.42511810446587872</v>
       </c>
-      <c r="J27" s="1" t="str">
+      <c r="G27">
+        <v>6.75</v>
+      </c>
+      <c r="H27">
+        <v>4.5</v>
+      </c>
+      <c r="I27">
+        <v>1.55</v>
+      </c>
+      <c r="J27" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K27" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L27" s="1" t="str">
+        <v>114.9909646157295</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45754.84375</v>
@@ -2452,20 +2469,30 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0.15114892133658731</v>
       </c>
-      <c r="J28" s="1" t="str">
+      <c r="G28">
+        <v>1.87</v>
+      </c>
+      <c r="H28">
+        <v>3.45</v>
+      </c>
+      <c r="I28">
+        <v>4.3</v>
+      </c>
+      <c r="J28" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K28" s="1" t="str">
+        <v>32.562445403539336</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L28" s="1" t="str">
+        <v>2.5691653994860557</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45754.864583333343</v>
@@ -2490,20 +2517,29 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>3.999172250593896E-3</v>
       </c>
-      <c r="J29" s="1" t="str">
+      <c r="G29">
+        <v>1.4</v>
+      </c>
+      <c r="H29">
+        <v>5.25</v>
+      </c>
+      <c r="I29">
+        <v>9.25</v>
+      </c>
+      <c r="J29" s="1">
         <f t="shared" ref="J29:J33" si="4">IF(G29=0,"",IF(D29&gt;=1/G29,(D29-1/G29)*10000/(G29-1)/7,0))</f>
-        <v/>
-      </c>
-      <c r="K29" s="1" t="str">
+        <v>846.03750368467968</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" ref="K29:K33" si="5">IF(H29=0,"",IF(E29&gt;=1/H29,(E29-1/H29)*10000/(H29-1)/7,0))</f>
-        <v/>
-      </c>
-      <c r="L29" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" ref="L29:L33" si="6">IF(I29=0,"",IF(F29&gt;=1/I29,(F29-1/I29)*10000/(I29-1)/7,0))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45754.864583333343</v>
@@ -2528,20 +2564,29 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>1.6167747960406171E-2</v>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="G30">
+        <v>3.1</v>
+      </c>
+      <c r="H30">
+        <v>3.1</v>
+      </c>
+      <c r="I30">
+        <v>2.7</v>
+      </c>
+      <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="1" t="str">
+        <v>395.53268692488257</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L30" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45754.875</v>
@@ -2566,20 +2611,29 @@
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0.1773572364997206</v>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="G31">
+        <v>2.8</v>
+      </c>
+      <c r="H31">
+        <v>3.1</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K31" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L31" s="1" t="str">
+        <v>162.98425830067978</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45758.854166666657</v>
@@ -2617,7 +2671,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45758.864583333343</v>
@@ -2656,7 +2710,7 @@
       </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45758.864583333343</v>
@@ -2694,7 +2748,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>45758.875</v>
@@ -2732,7 +2786,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2770,7 +2824,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2808,7 +2862,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2846,7 +2900,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2884,7 +2938,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2922,7 +2976,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2960,7 +3014,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -2998,7 +3052,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3036,7 +3090,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3074,7 +3128,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3112,7 +3166,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3150,7 +3204,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3188,7 +3242,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3226,7 +3280,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3264,7 +3318,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3306,7 +3360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3344,7 +3398,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3382,7 +3436,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3420,7 +3474,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3458,7 +3512,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3496,7 +3550,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3534,7 +3588,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3572,7 +3626,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>
@@ -3610,7 +3664,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
         <v>0</v>

--- a/ML_PL_new/realbet.xlsx
+++ b/ML_PL_new/realbet.xlsx
@@ -146,22 +146,22 @@
         </row>
         <row r="2">
           <cell r="A2">
-            <v>45753.520833333343</v>
+            <v>45759.520833333343</v>
           </cell>
           <cell r="B2" t="str">
-            <v>Lecce</v>
+            <v>Man City</v>
           </cell>
           <cell r="C2" t="str">
-            <v>Venezia</v>
+            <v>Crystal Palace</v>
           </cell>
           <cell r="D2">
-            <v>0.29015993047487743</v>
+            <v>0.1131733486684995</v>
           </cell>
           <cell r="E2">
-            <v>0.30779404523303172</v>
+            <v>0.10511845464730191</v>
           </cell>
           <cell r="F2">
-            <v>0.40204602429209102</v>
+            <v>0.78170819668420044</v>
           </cell>
           <cell r="G2"/>
           <cell r="H2"/>
@@ -169,22 +169,22 @@
         </row>
         <row r="3">
           <cell r="A3">
-            <v>45753.541666666657</v>
+            <v>45759.583333333343</v>
           </cell>
           <cell r="B3" t="str">
-            <v>Las Palmas</v>
+            <v>Sociedad</v>
           </cell>
           <cell r="C3" t="str">
-            <v>Sociedad</v>
+            <v>Mallorca</v>
           </cell>
           <cell r="D3">
-            <v>0.28181390641139381</v>
+            <v>0.62019832303780764</v>
           </cell>
           <cell r="E3">
-            <v>0.1137533504872498</v>
+            <v>0.21711571412806441</v>
           </cell>
           <cell r="F3">
-            <v>0.60443274310135608</v>
+            <v>0.16268596283412631</v>
           </cell>
           <cell r="G3"/>
           <cell r="H3"/>
@@ -192,22 +192,22 @@
         </row>
         <row r="4">
           <cell r="A4">
-            <v>45753.583333333343</v>
+            <v>45759.625</v>
           </cell>
           <cell r="B4" t="str">
-            <v>Tottenham</v>
+            <v>Venezia</v>
           </cell>
           <cell r="C4" t="str">
-            <v>Southampton</v>
+            <v>Monza</v>
           </cell>
           <cell r="D4">
-            <v>0.70314096901968237</v>
+            <v>0.36499103913624847</v>
           </cell>
           <cell r="E4">
-            <v>0.14965297495047211</v>
+            <v>0.20525499908044739</v>
           </cell>
           <cell r="F4">
-            <v>0.14720605602984679</v>
+            <v>0.42975396178330261</v>
           </cell>
           <cell r="G4"/>
           <cell r="H4"/>
@@ -215,22 +215,22 @@
         </row>
         <row r="5">
           <cell r="A5">
-            <v>45753.583333333343</v>
+            <v>45759.625</v>
           </cell>
           <cell r="B5" t="str">
-            <v>Brentford</v>
+            <v>Southampton</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Chelsea</v>
+            <v>Aston Villa</v>
           </cell>
           <cell r="D5">
-            <v>0.29282406808822198</v>
+            <v>4.1132395536010898E-2</v>
           </cell>
           <cell r="E5">
-            <v>0.27975202286562623</v>
+            <v>0.20391894318281131</v>
           </cell>
           <cell r="F5">
-            <v>0.42742390904615052</v>
+            <v>0.75494866128117744</v>
           </cell>
           <cell r="G5"/>
           <cell r="H5"/>
@@ -238,22 +238,22 @@
         </row>
         <row r="6">
           <cell r="A6">
-            <v>45753.583333333343</v>
+            <v>45759.625</v>
           </cell>
           <cell r="B6" t="str">
-            <v>Fulham</v>
+            <v>Nott'm Forest</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Liverpool</v>
+            <v>Everton</v>
           </cell>
           <cell r="D6">
-            <v>0.12772523142666459</v>
+            <v>0.56566103825338232</v>
           </cell>
           <cell r="E6">
-            <v>8.2013927578382162E-2</v>
+            <v>0.30359348150764609</v>
           </cell>
           <cell r="F6">
-            <v>0.79026084099495275</v>
+            <v>0.13074548023897081</v>
           </cell>
           <cell r="G6"/>
           <cell r="H6"/>
@@ -261,22 +261,22 @@
         </row>
         <row r="7">
           <cell r="A7">
-            <v>45753.604166666657</v>
+            <v>45759.625</v>
           </cell>
           <cell r="B7" t="str">
-            <v>Go Ahead Eagles</v>
+            <v>Brighton</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Utrecht</v>
+            <v>Leicester</v>
           </cell>
           <cell r="D7">
-            <v>0.1456930262892355</v>
+            <v>0.37707093824699373</v>
           </cell>
           <cell r="E7">
-            <v>0.19808268556841699</v>
+            <v>0.49224645341055401</v>
           </cell>
           <cell r="F7">
-            <v>0.65622428814234701</v>
+            <v>0.13068260834245099</v>
           </cell>
           <cell r="G7"/>
           <cell r="H7"/>
@@ -284,22 +284,22 @@
         </row>
         <row r="8">
           <cell r="A8">
-            <v>45753.604166666657</v>
+            <v>45759.645833333343</v>
           </cell>
           <cell r="B8" t="str">
-            <v>Sparta Rotterdam</v>
+            <v>Hoffenheim</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Nijmegen</v>
+            <v>Mainz</v>
           </cell>
           <cell r="D8">
-            <v>0.8655826675256274</v>
+            <v>2.409354976519363E-2</v>
           </cell>
           <cell r="E8">
-            <v>8.0284543707895686E-2</v>
+            <v>8.2093624046253283E-2</v>
           </cell>
           <cell r="F8">
-            <v>5.4132788766477459E-2</v>
+            <v>0.89381282618855373</v>
           </cell>
           <cell r="G8"/>
           <cell r="H8"/>
@@ -307,22 +307,22 @@
         </row>
         <row r="9">
           <cell r="A9">
-            <v>45753.625</v>
+            <v>45759.645833333343</v>
           </cell>
           <cell r="B9" t="str">
-            <v>Lens</v>
+            <v>Bochum</v>
           </cell>
           <cell r="C9" t="str">
-            <v>St Etienne</v>
+            <v>Augsburg</v>
           </cell>
           <cell r="D9">
-            <v>0.40762015737459251</v>
+            <v>0.1222567091380805</v>
           </cell>
           <cell r="E9">
-            <v>0.26200201476375229</v>
+            <v>0.112862793677379</v>
           </cell>
           <cell r="F9">
-            <v>0.33037782786165371</v>
+            <v>0.76488049718454032</v>
           </cell>
           <cell r="G9"/>
           <cell r="H9"/>
@@ -330,22 +330,22 @@
         </row>
         <row r="10">
           <cell r="A10">
-            <v>45753.625</v>
+            <v>45759.645833333343</v>
           </cell>
           <cell r="B10" t="str">
-            <v>Empoli</v>
+            <v>M'gladbach</v>
           </cell>
           <cell r="C10" t="str">
-            <v>Cagliari</v>
+            <v>Freiburg</v>
           </cell>
           <cell r="D10">
-            <v>0.12531438747561571</v>
+            <v>8.0663943083702866E-2</v>
           </cell>
           <cell r="E10">
-            <v>0.81034592183672194</v>
+            <v>0.15020769280530319</v>
           </cell>
           <cell r="F10">
-            <v>6.4339690687662141E-2</v>
+            <v>0.76912836411099383</v>
           </cell>
           <cell r="G10"/>
           <cell r="H10"/>
@@ -353,22 +353,22 @@
         </row>
         <row r="11">
           <cell r="A11">
-            <v>45753.625</v>
+            <v>45759.645833333343</v>
           </cell>
           <cell r="B11" t="str">
-            <v>Torino</v>
+            <v>Leverkusen</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Verona</v>
+            <v>Union Berlin</v>
           </cell>
           <cell r="D11">
-            <v>0.52488297435553277</v>
+            <v>0.55493068222496811</v>
           </cell>
           <cell r="E11">
-            <v>0.30863927399479513</v>
+            <v>0.15139381517850939</v>
           </cell>
           <cell r="F11">
-            <v>0.16647775164967091</v>
+            <v>0.29367550259652397</v>
           </cell>
           <cell r="G11"/>
           <cell r="H11"/>
@@ -376,22 +376,22 @@
         </row>
         <row r="12">
           <cell r="A12">
-            <v>45753.645833333343</v>
+            <v>45759.645833333343</v>
           </cell>
           <cell r="B12" t="str">
-            <v>Nacional</v>
+            <v>Holstein Kiel</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Estrela</v>
+            <v>St Pauli</v>
           </cell>
           <cell r="D12">
-            <v>0.88813131605389639</v>
+            <v>9.9059730581649685E-2</v>
           </cell>
           <cell r="E12">
-            <v>8.5002515242159543E-2</v>
+            <v>0.1660424138996178</v>
           </cell>
           <cell r="F12">
-            <v>2.6866168703945131E-2</v>
+            <v>0.73489785551873354</v>
           </cell>
           <cell r="G12"/>
           <cell r="H12"/>
@@ -399,22 +399,22 @@
         </row>
         <row r="13">
           <cell r="A13">
-            <v>45753.645833333343</v>
+            <v>45759.677083333343</v>
           </cell>
           <cell r="B13" t="str">
-            <v>St Pauli</v>
+            <v>Getafe</v>
           </cell>
           <cell r="C13" t="str">
-            <v>M'gladbach</v>
+            <v>Las Palmas</v>
           </cell>
           <cell r="D13">
-            <v>2.1704378841327652E-3</v>
+            <v>0.43058478516889481</v>
           </cell>
           <cell r="E13">
-            <v>5.8295492387751682E-2</v>
+            <v>0.2238748845330672</v>
           </cell>
           <cell r="F13">
-            <v>0.93953406972811515</v>
+            <v>0.34554033029803821</v>
           </cell>
           <cell r="G13"/>
           <cell r="H13"/>
@@ -422,22 +422,22 @@
         </row>
         <row r="14">
           <cell r="A14">
-            <v>45753.677083333343</v>
+            <v>45759.708333333343</v>
           </cell>
           <cell r="B14" t="str">
-            <v>Sevilla</v>
+            <v>Monaco</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Ath Madrid</v>
+            <v>Marseille</v>
           </cell>
           <cell r="D14">
-            <v>6.6307965652329437E-2</v>
+            <v>0.98586416304827285</v>
           </cell>
           <cell r="E14">
-            <v>7.6659996509573697E-2</v>
+            <v>1.412312947240647E-2</v>
           </cell>
           <cell r="F14">
-            <v>0.85703203783809645</v>
+            <v>1.270747931866404E-5</v>
           </cell>
           <cell r="G14"/>
           <cell r="H14"/>
@@ -445,22 +445,22 @@
         </row>
         <row r="15">
           <cell r="A15">
-            <v>45753.6875</v>
+            <v>45759.729166666657</v>
           </cell>
           <cell r="B15" t="str">
-            <v>Man United</v>
+            <v>Arsenal</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Man City</v>
+            <v>Brentford</v>
           </cell>
           <cell r="D15">
-            <v>0.29623850752522451</v>
+            <v>0.15461898794194301</v>
           </cell>
           <cell r="E15">
-            <v>0.16810128475650871</v>
+            <v>0.16954053153297349</v>
           </cell>
           <cell r="F15">
-            <v>0.53566020771826517</v>
+            <v>0.67584048052508472</v>
           </cell>
           <cell r="G15"/>
           <cell r="H15"/>
@@ -468,22 +468,22 @@
         </row>
         <row r="16">
           <cell r="A16">
-            <v>45753.697916666657</v>
+            <v>45759.75</v>
           </cell>
           <cell r="B16" t="str">
-            <v>Ajax</v>
+            <v>Inter</v>
           </cell>
           <cell r="C16" t="str">
-            <v>NAC Breda</v>
+            <v>Cagliari</v>
           </cell>
           <cell r="D16">
-            <v>0.94192093011973477</v>
+            <v>0.96816543287283141</v>
           </cell>
           <cell r="E16">
-            <v>5.3605305003402361E-2</v>
+            <v>2.992290549776476E-2</v>
           </cell>
           <cell r="F16">
-            <v>4.4737648768639667E-3</v>
+            <v>1.9116616294053419E-3</v>
           </cell>
           <cell r="G16"/>
           <cell r="H16"/>
@@ -491,22 +491,22 @@
         </row>
         <row r="17">
           <cell r="A17">
-            <v>45753.71875</v>
+            <v>45759.770833333343</v>
           </cell>
           <cell r="B17" t="str">
-            <v>Reims</v>
+            <v>Celta</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Strasbourg</v>
+            <v>Espanol</v>
           </cell>
           <cell r="D17">
-            <v>1.6336090419902732E-2</v>
+            <v>0.61456919392800136</v>
           </cell>
           <cell r="E17">
-            <v>5.1366587330780533E-2</v>
+            <v>0.30263087134127492</v>
           </cell>
           <cell r="F17">
-            <v>0.93229732224931683</v>
+            <v>8.2799934730724459E-2</v>
           </cell>
           <cell r="G17"/>
           <cell r="H17"/>
@@ -514,22 +514,22 @@
         </row>
         <row r="18">
           <cell r="A18">
-            <v>45753.71875</v>
+            <v>45759.770833333343</v>
           </cell>
           <cell r="B18" t="str">
-            <v>Montpellier</v>
+            <v>Bayern Munich</v>
           </cell>
           <cell r="C18" t="str">
-            <v>Le Havre</v>
+            <v>Dortmund</v>
           </cell>
           <cell r="D18">
-            <v>1.5732534459876431E-2</v>
+            <v>0.82523647641144537</v>
           </cell>
           <cell r="E18">
-            <v>8.1976681915216731E-2</v>
+            <v>0.17214612111203781</v>
           </cell>
           <cell r="F18">
-            <v>0.90229078362490667</v>
+            <v>2.6174024765166868E-3</v>
           </cell>
           <cell r="G18"/>
           <cell r="H18"/>
@@ -537,22 +537,22 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>45753.71875</v>
+            <v>45759.791666666657</v>
           </cell>
           <cell r="B19" t="str">
-            <v>Rennes</v>
+            <v>Toulouse</v>
           </cell>
           <cell r="C19" t="str">
-            <v>Auxerre</v>
+            <v>Lille</v>
           </cell>
           <cell r="D19">
-            <v>4.1603395236546957E-2</v>
+            <v>9.9768319457245916E-2</v>
           </cell>
           <cell r="E19">
-            <v>0.22781670811468799</v>
+            <v>0.14153144522829589</v>
           </cell>
           <cell r="F19">
-            <v>0.73057989664876599</v>
+            <v>0.75870023531445918</v>
           </cell>
           <cell r="G19"/>
           <cell r="H19"/>
@@ -560,22 +560,22 @@
         </row>
         <row r="20">
           <cell r="A20">
-            <v>45753.729166666657</v>
+            <v>45759.864583333343</v>
           </cell>
           <cell r="B20" t="str">
-            <v>Union Berlin</v>
+            <v>Juventus</v>
           </cell>
           <cell r="C20" t="str">
-            <v>Wolfsburg</v>
+            <v>Lecce</v>
           </cell>
           <cell r="D20">
-            <v>6.6208374095084607E-2</v>
+            <v>0.59282396495132694</v>
           </cell>
           <cell r="E20">
-            <v>0.12780911640340681</v>
+            <v>0.21823514965793411</v>
           </cell>
           <cell r="F20">
-            <v>0.80598250950150996</v>
+            <v>0.18894088539073939</v>
           </cell>
           <cell r="G20"/>
           <cell r="H20"/>
@@ -583,22 +583,22 @@
         </row>
         <row r="21">
           <cell r="A21">
-            <v>45753.75</v>
+            <v>45759.875</v>
           </cell>
           <cell r="B21" t="str">
-            <v>Atalanta</v>
+            <v>Leganes</v>
           </cell>
           <cell r="C21" t="str">
-            <v>Lazio</v>
+            <v>Barcelona</v>
           </cell>
           <cell r="D21">
-            <v>0.233542168154732</v>
+            <v>4.7951828864282721E-4</v>
           </cell>
           <cell r="E21">
-            <v>0.28698877717827248</v>
+            <v>0.1449451365582341</v>
           </cell>
           <cell r="F21">
-            <v>0.4794690546669963</v>
+            <v>0.85457534515311973</v>
           </cell>
           <cell r="G21"/>
           <cell r="H21"/>
@@ -606,22 +606,22 @@
         </row>
         <row r="22">
           <cell r="A22">
-            <v>45753.770833333343</v>
+            <v>45759.878472222219</v>
           </cell>
           <cell r="B22" t="str">
-            <v>Valladolid</v>
+            <v>Strasbourg</v>
           </cell>
           <cell r="C22" t="str">
-            <v>Getafe</v>
+            <v>Nice</v>
           </cell>
           <cell r="D22">
-            <v>8.7977982739713162E-2</v>
+            <v>0.2216591221426398</v>
           </cell>
           <cell r="E22">
-            <v>8.3057510221595091E-2</v>
+            <v>0.29028408733301281</v>
           </cell>
           <cell r="F22">
-            <v>0.82896450703869262</v>
+            <v>0.48805679052434853</v>
           </cell>
           <cell r="G22"/>
           <cell r="H22"/>
@@ -629,22 +629,22 @@
         </row>
         <row r="23">
           <cell r="A23">
-            <v>45753.864583333343</v>
+            <v>45760.520833333343</v>
           </cell>
           <cell r="B23" t="str">
-            <v>Roma</v>
+            <v>Atalanta</v>
           </cell>
           <cell r="C23" t="str">
-            <v>Juventus</v>
+            <v>Bologna</v>
           </cell>
           <cell r="D23">
-            <v>0.84287837337750937</v>
+            <v>0.13316507608076961</v>
           </cell>
           <cell r="E23">
-            <v>8.9214790052099854E-2</v>
+            <v>0.18363518003875631</v>
           </cell>
           <cell r="F23">
-            <v>6.7906836570391288E-2</v>
+            <v>0.68319974388047244</v>
           </cell>
           <cell r="G23"/>
           <cell r="H23"/>
@@ -652,22 +652,22 @@
         </row>
         <row r="24">
           <cell r="A24">
-            <v>45753.864583333343</v>
+            <v>45760.583333333343</v>
           </cell>
           <cell r="B24" t="str">
-            <v>Marseille</v>
+            <v>Chelsea</v>
           </cell>
           <cell r="C24" t="str">
-            <v>Toulouse</v>
+            <v>Ipswich</v>
           </cell>
           <cell r="D24">
-            <v>0.1162325216719954</v>
+            <v>0.96549915485687277</v>
           </cell>
           <cell r="E24">
-            <v>0.78101530899372384</v>
+            <v>3.0075569216329982E-2</v>
           </cell>
           <cell r="F24">
-            <v>0.10275216933427921</v>
+            <v>4.4252759267971471E-3</v>
           </cell>
           <cell r="G24"/>
           <cell r="H24"/>
@@ -675,22 +675,22 @@
         </row>
         <row r="25">
           <cell r="A25">
-            <v>45753.875</v>
+            <v>45760.583333333343</v>
           </cell>
           <cell r="B25" t="str">
-            <v>Villarreal</v>
+            <v>Liverpool</v>
           </cell>
           <cell r="C25" t="str">
-            <v>Ath Bilbao</v>
+            <v>West Ham</v>
           </cell>
           <cell r="D25">
-            <v>0.84138552328585381</v>
+            <v>0.95057255957671449</v>
           </cell>
           <cell r="E25">
-            <v>0.1172589813807315</v>
+            <v>4.2928618728116742E-2</v>
           </cell>
           <cell r="F25">
-            <v>4.1355495333416259E-2</v>
+            <v>6.4988216951703511E-3</v>
           </cell>
           <cell r="G25"/>
           <cell r="H25"/>
@@ -698,22 +698,22 @@
         </row>
         <row r="26">
           <cell r="A26">
-            <v>45754.78125</v>
+            <v>45760.583333333343</v>
           </cell>
           <cell r="B26" t="str">
-            <v>Farense</v>
+            <v>Osasuna</v>
           </cell>
           <cell r="C26" t="str">
-            <v>Casa Pia</v>
+            <v>Girona</v>
           </cell>
           <cell r="D26">
-            <v>0.17956118614166719</v>
+            <v>0.34717788214057449</v>
           </cell>
           <cell r="E26">
-            <v>0.13102266558196021</v>
+            <v>0.26162581337778368</v>
           </cell>
           <cell r="F26">
-            <v>0.68941614827637343</v>
+            <v>0.39119630448163989</v>
           </cell>
           <cell r="G26"/>
           <cell r="H26"/>
@@ -721,22 +721,22 @@
         </row>
         <row r="27">
           <cell r="A27">
-            <v>45754.833333333343</v>
+            <v>45760.625</v>
           </cell>
           <cell r="B27" t="str">
-            <v>Leicester</v>
+            <v>Verona</v>
           </cell>
           <cell r="C27" t="str">
-            <v>Newcastle</v>
+            <v>Genoa</v>
           </cell>
           <cell r="D27">
-            <v>7.0931810003362419E-2</v>
+            <v>0.28313172005935072</v>
           </cell>
           <cell r="E27">
-            <v>0.50395008553075948</v>
+            <v>0.49492405762370811</v>
           </cell>
           <cell r="F27">
-            <v>0.42511810446587872</v>
+            <v>0.2219442223169425</v>
           </cell>
           <cell r="G27"/>
           <cell r="H27"/>
@@ -744,22 +744,22 @@
         </row>
         <row r="28">
           <cell r="A28">
-            <v>45754.84375</v>
+            <v>45760.625</v>
           </cell>
           <cell r="B28" t="str">
-            <v>Rio Ave</v>
+            <v>Fiorentina</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Boavista</v>
+            <v>Parma</v>
           </cell>
           <cell r="D28">
-            <v>0.55458988753952543</v>
+            <v>0.72661883971149377</v>
           </cell>
           <cell r="E28">
-            <v>0.29426119112388671</v>
+            <v>0.2171030325217837</v>
           </cell>
           <cell r="F28">
-            <v>0.15114892133658731</v>
+            <v>5.6278127766723751E-2</v>
           </cell>
           <cell r="G28"/>
           <cell r="H28"/>
@@ -767,22 +767,22 @@
         </row>
         <row r="29">
           <cell r="A29">
-            <v>45754.864583333343</v>
+            <v>45760.625</v>
           </cell>
           <cell r="B29" t="str">
-            <v>Sp Lisbon</v>
+            <v>St Etienne</v>
           </cell>
           <cell r="C29" t="str">
-            <v>Sp Braga</v>
+            <v>Brest</v>
           </cell>
           <cell r="D29">
-            <v>0.95117621531742458</v>
+            <v>6.1188093953216428E-2</v>
           </cell>
           <cell r="E29">
-            <v>4.482461243198025E-2</v>
+            <v>0.17470219231536091</v>
           </cell>
           <cell r="F29">
-            <v>3.999172250593896E-3</v>
+            <v>0.76410971373142433</v>
           </cell>
           <cell r="G29"/>
           <cell r="H29"/>
@@ -790,22 +790,22 @@
         </row>
         <row r="30">
           <cell r="A30">
-            <v>45754.864583333343</v>
+            <v>45760.645833333343</v>
           </cell>
           <cell r="B30" t="str">
-            <v>Bologna</v>
+            <v>Stuttgart</v>
           </cell>
           <cell r="C30" t="str">
-            <v>Napoli</v>
+            <v>Werder Bremen</v>
           </cell>
           <cell r="D30">
-            <v>0.9040136949408677</v>
+            <v>2.2725294276553999E-2</v>
           </cell>
           <cell r="E30">
-            <v>7.9818557098727871E-2</v>
+            <v>3.3334365157423267E-2</v>
           </cell>
           <cell r="F30">
-            <v>1.6167747960406171E-2</v>
+            <v>0.94394034056602183</v>
           </cell>
           <cell r="G30"/>
           <cell r="H30"/>
@@ -813,22 +813,22 @@
         </row>
         <row r="31">
           <cell r="A31">
-            <v>45754.875</v>
+            <v>45760.677083333343</v>
           </cell>
           <cell r="B31" t="str">
-            <v>Leganes</v>
+            <v>Alaves</v>
           </cell>
           <cell r="C31" t="str">
-            <v>Osasuna</v>
+            <v>Real Madrid</v>
           </cell>
           <cell r="D31">
-            <v>0.26047525863698823</v>
+            <v>9.9743470733222525E-2</v>
           </cell>
           <cell r="E31">
-            <v>0.56216750486328959</v>
+            <v>0.10709843195513449</v>
           </cell>
           <cell r="F31">
-            <v>0.1773572364997206</v>
+            <v>0.79315809731164355</v>
           </cell>
           <cell r="G31"/>
           <cell r="H31"/>
@@ -836,22 +836,22 @@
         </row>
         <row r="32">
           <cell r="A32">
-            <v>45758.854166666657</v>
+            <v>45760.6875</v>
           </cell>
           <cell r="B32" t="str">
-            <v>Wolfsburg</v>
+            <v>Newcastle</v>
           </cell>
           <cell r="C32" t="str">
-            <v>RB Leipzig</v>
+            <v>Man United</v>
           </cell>
           <cell r="D32">
-            <v>2.5247839695903801E-2</v>
+            <v>0.1103822677815012</v>
           </cell>
           <cell r="E32">
-            <v>0.29045978019965762</v>
+            <v>0.3150932489198735</v>
           </cell>
           <cell r="F32">
-            <v>0.68429238010443882</v>
+            <v>0.57452448329862682</v>
           </cell>
           <cell r="G32"/>
           <cell r="H32"/>
@@ -859,22 +859,22 @@
         </row>
         <row r="33">
           <cell r="A33">
-            <v>45758.864583333343</v>
+            <v>45760.71875</v>
           </cell>
           <cell r="B33" t="str">
-            <v>Udinese</v>
+            <v>Angers</v>
           </cell>
           <cell r="C33" t="str">
-            <v>Milan</v>
+            <v>Montpellier</v>
           </cell>
           <cell r="D33">
-            <v>0.34708327680070977</v>
+            <v>0.1022163827735012</v>
           </cell>
           <cell r="E33">
-            <v>0.2236121214241365</v>
+            <v>0.67167710812065806</v>
           </cell>
           <cell r="F33">
-            <v>0.42930460177515312</v>
+            <v>0.2261065091058376</v>
           </cell>
           <cell r="G33"/>
           <cell r="H33"/>
@@ -882,22 +882,22 @@
         </row>
         <row r="34">
           <cell r="A34">
-            <v>45758.864583333343</v>
+            <v>45760.71875</v>
           </cell>
           <cell r="B34" t="str">
-            <v>Lens</v>
+            <v>Le Havre</v>
           </cell>
           <cell r="C34" t="str">
-            <v>Reims</v>
+            <v>Rennes</v>
           </cell>
           <cell r="D34">
-            <v>0.35070665839566839</v>
+            <v>4.2083196637145159E-3</v>
           </cell>
           <cell r="E34">
-            <v>0.33068035910412469</v>
+            <v>5.552189449588172E-2</v>
           </cell>
           <cell r="F34">
-            <v>0.31861298250020659</v>
+            <v>0.94026978584040555</v>
           </cell>
           <cell r="G34"/>
           <cell r="H34"/>
@@ -905,26 +905,210 @@
         </row>
         <row r="35">
           <cell r="A35">
-            <v>45758.875</v>
+            <v>45760.729166666657</v>
           </cell>
           <cell r="B35" t="str">
-            <v>Valencia</v>
+            <v>Ein Frankfurt</v>
           </cell>
           <cell r="C35" t="str">
-            <v>Sevilla</v>
+            <v>Heidenheim</v>
           </cell>
           <cell r="D35">
-            <v>0.46645214221628678</v>
+            <v>0.21800284801446859</v>
           </cell>
           <cell r="E35">
-            <v>0.21711169747435541</v>
+            <v>0.19517189927192971</v>
           </cell>
           <cell r="F35">
-            <v>0.31643616030935751</v>
+            <v>0.58682525271359998</v>
           </cell>
           <cell r="G35"/>
           <cell r="H35"/>
           <cell r="I35"/>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>45760.75</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>Como</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Torino</v>
+          </cell>
+          <cell r="D36">
+            <v>0.2759558418493942</v>
+          </cell>
+          <cell r="E36">
+            <v>0.17627296318844299</v>
+          </cell>
+          <cell r="F36">
+            <v>0.54777119496216375</v>
+          </cell>
+          <cell r="G36"/>
+          <cell r="H36"/>
+          <cell r="I36"/>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>45760.770833333343</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>Betis</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Villarreal</v>
+          </cell>
+          <cell r="D37">
+            <v>0.55790500099020324</v>
+          </cell>
+          <cell r="E37">
+            <v>0.1148106372592663</v>
+          </cell>
+          <cell r="F37">
+            <v>0.32728436175052972</v>
+          </cell>
+          <cell r="G37"/>
+          <cell r="H37"/>
+          <cell r="I37"/>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>45760.864583333343</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>Lazio</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Roma</v>
+          </cell>
+          <cell r="D38">
+            <v>3.192560751745491E-3</v>
+          </cell>
+          <cell r="E38">
+            <v>5.2250092696111257E-2</v>
+          </cell>
+          <cell r="F38">
+            <v>0.94455734655214252</v>
+          </cell>
+          <cell r="G38"/>
+          <cell r="H38"/>
+          <cell r="I38"/>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>45760.864583333343</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>Auxerre</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Lyon</v>
+          </cell>
+          <cell r="D39">
+            <v>4.7983122897635268E-2</v>
+          </cell>
+          <cell r="E39">
+            <v>0.1941111288127651</v>
+          </cell>
+          <cell r="F39">
+            <v>0.757905748289601</v>
+          </cell>
+          <cell r="G39"/>
+          <cell r="H39"/>
+          <cell r="I39"/>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>45760.875</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>Ath Bilbao</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Vallecano</v>
+          </cell>
+          <cell r="D40">
+            <v>0.86859289756446512</v>
+          </cell>
+          <cell r="E40">
+            <v>0.1178578840802816</v>
+          </cell>
+          <cell r="F40">
+            <v>1.354921835525289E-2</v>
+          </cell>
+          <cell r="G40"/>
+          <cell r="H40"/>
+          <cell r="I40"/>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>45761.833333333343</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>Bournemouth</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Fulham</v>
+          </cell>
+          <cell r="D41">
+            <v>0.2503301029603674</v>
+          </cell>
+          <cell r="E41">
+            <v>0.15574900453949109</v>
+          </cell>
+          <cell r="F41">
+            <v>0.59392089250014068</v>
+          </cell>
+          <cell r="G41"/>
+          <cell r="H41"/>
+          <cell r="I41"/>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>45761.864583333343</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>Napoli</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Empoli</v>
+          </cell>
+          <cell r="D42">
+            <v>0.86756156571734233</v>
+          </cell>
+          <cell r="E42">
+            <v>9.008033593651972E-2</v>
+          </cell>
+          <cell r="F42">
+            <v>4.2358098346139669E-2</v>
+          </cell>
+          <cell r="G42"/>
+          <cell r="H42"/>
+          <cell r="I42"/>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>45761.875</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>Ath Madrid</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>Valladolid</v>
+          </cell>
+          <cell r="D43">
+            <v>0.54506411165166835</v>
+          </cell>
+          <cell r="E43">
+            <v>0.30064657538011452</v>
+          </cell>
+          <cell r="F43">
+            <v>0.1542893129682163</v>
+          </cell>
+          <cell r="G43"/>
+          <cell r="H43"/>
+          <cell r="I43"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -1197,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="A2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,36 +1445,36 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.520833333343</v>
+        <v>45759.520833333343</v>
       </c>
       <c r="B2" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lecce</v>
+        <v>Man City</v>
       </c>
       <c r="C2" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Venezia</v>
+        <v>Crystal Palace</v>
       </c>
       <c r="D2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29015993047487743</v>
+        <v>0.1131733486684995</v>
       </c>
       <c r="E2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.30779404523303172</v>
+        <v>0.10511845464730191</v>
       </c>
       <c r="F2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.40204602429209102</v>
+        <v>0.78170819668420044</v>
       </c>
       <c r="G2">
-        <v>2.42</v>
+        <v>1.6</v>
       </c>
       <c r="H2">
-        <v>3.05</v>
+        <v>4.55</v>
       </c>
       <c r="I2">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="J2" s="1">
         <f>IF(G2=0,"",IF(D2&gt;=1/G2,(D2-1/G2)*10000/(G2-1)/7,0))</f>
@@ -1302,46 +1486,46 @@
       </c>
       <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>64.243081686468742</v>
+        <v>198.73344746487732</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.541666666657</v>
+        <v>45759.583333333343</v>
       </c>
       <c r="B3" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Las Palmas</v>
+        <v>Sociedad</v>
       </c>
       <c r="C3" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sociedad</v>
+        <v>Mallorca</v>
       </c>
       <c r="D3">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.28181390641139381</v>
+        <v>0.62019832303780764</v>
       </c>
       <c r="E3">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1137533504872498</v>
+        <v>0.21711571412806441</v>
       </c>
       <c r="F3">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.60443274310135608</v>
+        <v>0.16268596283412631</v>
       </c>
       <c r="G3">
-        <v>3.65</v>
+        <v>1.96</v>
       </c>
       <c r="H3">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I3">
-        <v>2.17</v>
+        <v>4.7</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" ref="J3:J28" si="1">IF(G3=0,"",IF(D3&gt;=1/G3,(D3-1/G3)*10000/(G3-1)/7,0))</f>
-        <v>4.2271178823007007</v>
+        <v>163.68190685290861</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K28" si="2">IF(H3=0,"",IF(E3&gt;=1/H3,(E3-1/H3)*10000/(H3-1)/7,0))</f>
@@ -1349,46 +1533,46 @@
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L28" si="3">IF(I3=0,"",IF(F3&gt;=1/I3,(F3-1/I3)*10000/(I3-1)/7,0))</f>
-        <v>175.33974360659155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.583333333343</v>
+        <v>45759.625</v>
       </c>
       <c r="B4" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Tottenham</v>
+        <v>Venezia</v>
       </c>
       <c r="C4" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Southampton</v>
+        <v>Monza</v>
       </c>
       <c r="D4">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.70314096901968237</v>
+        <v>0.36499103913624847</v>
       </c>
       <c r="E4">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.14965297495047211</v>
+        <v>0.20525499908044739</v>
       </c>
       <c r="F4">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.14720605602984679</v>
+        <v>0.42975396178330261</v>
       </c>
       <c r="G4">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I4">
-        <v>7</v>
+        <v>4.95</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>28.235469400123225</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="2"/>
@@ -1396,42 +1580,42 @@
       </c>
       <c r="L4" s="1">
         <f t="shared" si="3"/>
-        <v>1.0354555173104629</v>
+        <v>82.36302342245952</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.583333333343</v>
+        <v>45759.625</v>
       </c>
       <c r="B5" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Brentford</v>
+        <v>Southampton</v>
       </c>
       <c r="C5" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Chelsea</v>
+        <v>Aston Villa</v>
       </c>
       <c r="D5">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29282406808822198</v>
+        <v>4.1132395536010898E-2</v>
       </c>
       <c r="E5">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.27975202286562623</v>
+        <v>0.20391894318281131</v>
       </c>
       <c r="F5">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.42742390904615052</v>
+        <v>0.75494866128117744</v>
       </c>
       <c r="G5">
-        <v>3.15</v>
+        <v>5.5</v>
       </c>
       <c r="H5">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="I5">
-        <v>2.2000000000000002</v>
+        <v>1.59</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
@@ -1439,93 +1623,93 @@
       </c>
       <c r="K5" s="1">
         <f t="shared" si="2"/>
-        <v>8.4663919024408862</v>
+        <v>0</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>305.12795077751707</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.583333333343</v>
+        <v>45759.625</v>
       </c>
       <c r="B6" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Fulham</v>
+        <v>Nott'm Forest</v>
       </c>
       <c r="C6" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Liverpool</v>
+        <v>Everton</v>
       </c>
       <c r="D6">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.12772523142666459</v>
+        <v>0.56566103825338232</v>
       </c>
       <c r="E6">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.2013927578382162E-2</v>
+        <v>0.30359348150764609</v>
       </c>
       <c r="F6">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.79026084099495275</v>
+        <v>0.13074548023897081</v>
       </c>
       <c r="G6">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H6">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I6">
-        <v>1.89</v>
+        <v>3.85</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>116.19553514663134</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3.09180475445529</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="3"/>
-        <v>419.19793241480511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.604166666657</v>
+        <v>45759.625</v>
       </c>
       <c r="B7" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Go Ahead Eagles</v>
+        <v>Brighton</v>
       </c>
       <c r="C7" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Utrecht</v>
+        <v>Leicester</v>
       </c>
       <c r="D7">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1456930262892355</v>
+        <v>0.37707093824699373</v>
       </c>
       <c r="E7">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.19808268556841699</v>
+        <v>0.49224645341055401</v>
       </c>
       <c r="F7">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.65622428814234701</v>
+        <v>0.13068260834245099</v>
       </c>
       <c r="G7">
-        <v>2.2200000000000002</v>
+        <v>1.3</v>
       </c>
       <c r="H7">
-        <v>3.6</v>
+        <v>5.65</v>
       </c>
       <c r="I7">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="1"/>
@@ -1533,50 +1717,50 @@
       </c>
       <c r="K7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96.852627639961938</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="3"/>
-        <v>228.81911894308755</v>
+        <v>5.3300019705798132</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.604166666657</v>
+        <v>45759.645833333343</v>
       </c>
       <c r="B8" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sparta Rotterdam</v>
+        <v>Hoffenheim</v>
       </c>
       <c r="C8" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nijmegen</v>
+        <v>Mainz</v>
       </c>
       <c r="D8">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.8655826675256274</v>
+        <v>2.409354976519363E-2</v>
       </c>
       <c r="E8">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.0284543707895686E-2</v>
+        <v>8.2093624046253283E-2</v>
       </c>
       <c r="F8">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.4132788766477459E-2</v>
+        <v>0.89381282618855373</v>
       </c>
       <c r="G8">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="H8">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>4.3499999999999996</v>
+        <v>2.61</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="1"/>
-        <v>553.61984280369973</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
@@ -1584,42 +1768,42 @@
       </c>
       <c r="L8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>453.12428015656303</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.625</v>
+        <v>45759.645833333343</v>
       </c>
       <c r="B9" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lens</v>
+        <v>Bochum</v>
       </c>
       <c r="C9" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>St Etienne</v>
+        <v>Augsburg</v>
       </c>
       <c r="D9">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.40762015737459251</v>
+        <v>0.1222567091380805</v>
       </c>
       <c r="E9">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.26200201476375229</v>
+        <v>0.112862793677379</v>
       </c>
       <c r="F9">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.33037782786165371</v>
+        <v>0.76488049718454032</v>
       </c>
       <c r="G9">
-        <v>1.65</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="H9">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="1"/>
@@ -1627,46 +1811,46 @@
       </c>
       <c r="K9" s="1">
         <f t="shared" si="2"/>
-        <v>12.746266332843536</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="3"/>
-        <v>46.563509950590607</v>
+        <v>280.21598221768858</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.625</v>
+        <v>45759.645833333343</v>
       </c>
       <c r="B10" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Empoli</v>
+        <v>M'gladbach</v>
       </c>
       <c r="C10" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Cagliari</v>
+        <v>Freiburg</v>
       </c>
       <c r="D10">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.12531438747561571</v>
+        <v>8.0663943083702866E-2</v>
       </c>
       <c r="E10">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.81034592183672194</v>
+        <v>0.15020769280530319</v>
       </c>
       <c r="F10">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.4339690687662141E-2</v>
+        <v>0.76912836411099383</v>
       </c>
       <c r="G10">
-        <v>2.62</v>
+        <v>2.25</v>
       </c>
       <c r="H10">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="I10">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="1"/>
@@ -1674,97 +1858,97 @@
       </c>
       <c r="K10" s="1">
         <f t="shared" si="2"/>
-        <v>336.22095427017808</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300.11165890410393</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.625</v>
+        <v>45759.645833333343</v>
       </c>
       <c r="B11" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Torino</v>
+        <v>Leverkusen</v>
       </c>
       <c r="C11" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Verona</v>
+        <v>Union Berlin</v>
       </c>
       <c r="D11">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.52488297435553277</v>
+        <v>0.55493068222496811</v>
       </c>
       <c r="E11">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.30863927399479513</v>
+        <v>0.15139381517850939</v>
       </c>
       <c r="F11">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.16647775164967091</v>
+        <v>0.29367550259652397</v>
       </c>
       <c r="G11">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="H11">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>4.95</v>
+        <v>8.5</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="1"/>
-        <v>2.0765540525102124</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="2"/>
-        <v>3.4838328972000552</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33.529227385332298</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.645833333343</v>
+        <v>45759.645833333343</v>
       </c>
       <c r="B12" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Nacional</v>
+        <v>Holstein Kiel</v>
       </c>
       <c r="C12" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Estrela</v>
+        <v>St Pauli</v>
       </c>
       <c r="D12">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.88813131605389639</v>
+        <v>9.9059730581649685E-2</v>
       </c>
       <c r="E12">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.5002515242159543E-2</v>
+        <v>0.1660424138996178</v>
       </c>
       <c r="F12">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.6866168703945131E-2</v>
+        <v>0.73489785551873354</v>
       </c>
       <c r="G12">
-        <v>2.04</v>
+        <v>3.15</v>
       </c>
       <c r="H12">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
-        <v>3.85</v>
+        <v>2.37</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="1"/>
-        <v>546.61433739357665</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="2"/>
@@ -1772,42 +1956,42 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>326.33673331458959</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.645833333343</v>
+        <v>45759.677083333343</v>
       </c>
       <c r="B13" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>St Pauli</v>
+        <v>Getafe</v>
       </c>
       <c r="C13" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>M'gladbach</v>
+        <v>Las Palmas</v>
       </c>
       <c r="D13">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.1704378841327652E-3</v>
+        <v>0.43058478516889481</v>
       </c>
       <c r="E13">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.8295492387751682E-2</v>
+        <v>0.2238748845330672</v>
       </c>
       <c r="F13">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.93953406972811515</v>
+        <v>0.34554033029803821</v>
       </c>
       <c r="G13">
-        <v>2.2799999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="H13">
         <v>3.55</v>
       </c>
       <c r="I13">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="1"/>
@@ -1819,46 +2003,46 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>407.16498034293187</v>
+        <v>51.978689392156504</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.677083333343</v>
+        <v>45759.708333333343</v>
       </c>
       <c r="B14" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sevilla</v>
+        <v>Monaco</v>
       </c>
       <c r="C14" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ath Madrid</v>
+        <v>Marseille</v>
       </c>
       <c r="D14">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.6307965652329437E-2</v>
+        <v>0.98586416304827285</v>
       </c>
       <c r="E14">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.6659996509573697E-2</v>
+        <v>1.412312947240647E-2</v>
       </c>
       <c r="F14">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.85703203783809645</v>
+        <v>1.270747931866404E-5</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>2.09</v>
       </c>
       <c r="H14">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="I14">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>665.00034538236127</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="2"/>
@@ -1866,46 +2050,46 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>455.15044567098147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.6875</v>
+        <v>45759.729166666657</v>
       </c>
       <c r="B15" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Man United</v>
+        <v>Arsenal</v>
       </c>
       <c r="C15" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Man City</v>
+        <v>Brentford</v>
       </c>
       <c r="D15">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29623850752522451</v>
+        <v>0.15461898794194301</v>
       </c>
       <c r="E15">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.16810128475650871</v>
+        <v>0.16954053153297349</v>
       </c>
       <c r="F15">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.53566020771826517</v>
+        <v>0.67584048052508472</v>
       </c>
       <c r="G15">
-        <v>3.45</v>
+        <v>1.7</v>
       </c>
       <c r="H15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I15">
-        <v>2.19</v>
+        <v>5.25</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="1"/>
-        <v>3.722119569362325</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="2"/>
@@ -1913,46 +2097,46 @@
       </c>
       <c r="L15" s="1">
         <f t="shared" si="3"/>
-        <v>94.884997781578747</v>
+        <v>163.14766052063672</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.697916666657</v>
+        <v>45759.75</v>
       </c>
       <c r="B16" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ajax</v>
+        <v>Inter</v>
       </c>
       <c r="C16" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>NAC Breda</v>
+        <v>Cagliari</v>
       </c>
       <c r="D16">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.94192093011973477</v>
+        <v>0.96816543287283141</v>
       </c>
       <c r="E16">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.3605305003402361E-2</v>
+        <v>2.992290549776476E-2</v>
       </c>
       <c r="F16">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>4.4737648768639667E-3</v>
+        <v>1.9116616294053419E-3</v>
       </c>
       <c r="G16">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="I16">
-        <v>10.5</v>
+        <v>8.75</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
-        <v>814.67107949967669</v>
+        <v>919.839480979001</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="2"/>
@@ -1966,87 +2150,87 @@
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.71875</v>
+        <v>45759.770833333343</v>
       </c>
       <c r="B17" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Reims</v>
+        <v>Celta</v>
       </c>
       <c r="C17" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Strasbourg</v>
+        <v>Espanol</v>
       </c>
       <c r="D17">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.6336090419902732E-2</v>
+        <v>0.61456919392800136</v>
       </c>
       <c r="E17">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>5.1366587330780533E-2</v>
+        <v>0.30263087134127492</v>
       </c>
       <c r="F17">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.93229732224931683</v>
+        <v>8.2799934730724459E-2</v>
       </c>
       <c r="G17">
-        <v>3.5</v>
+        <v>1.64</v>
       </c>
       <c r="H17">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I17">
-        <v>2.16</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.743518676396787</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21.499053434092836</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="3"/>
-        <v>577.99797941669192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.71875</v>
+        <v>45759.770833333343</v>
       </c>
       <c r="B18" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Montpellier</v>
+        <v>Bayern Munich</v>
       </c>
       <c r="C18" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Le Havre</v>
+        <v>Dortmund</v>
       </c>
       <c r="D18">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.5732534459876431E-2</v>
+        <v>0.82523647641144537</v>
       </c>
       <c r="E18">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.1976681915216731E-2</v>
+        <v>0.17214612111203781</v>
       </c>
       <c r="F18">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.90229078362490667</v>
+        <v>2.6174024765166868E-3</v>
       </c>
       <c r="G18">
-        <v>2.4900000000000002</v>
+        <v>1.54</v>
       </c>
       <c r="H18">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="I18">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>465.30642079575671</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="2"/>
@@ -2054,42 +2238,42 @@
       </c>
       <c r="L18" s="1">
         <f t="shared" si="3"/>
-        <v>419.14526121654893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.71875</v>
+        <v>45759.791666666657</v>
       </c>
       <c r="B19" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Rennes</v>
+        <v>Toulouse</v>
       </c>
       <c r="C19" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Auxerre</v>
+        <v>Lille</v>
       </c>
       <c r="D19">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>4.1603395236546957E-2</v>
+        <v>9.9768319457245916E-2</v>
       </c>
       <c r="E19">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.22781670811468799</v>
+        <v>0.14153144522829589</v>
       </c>
       <c r="F19">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.73057989664876599</v>
+        <v>0.75870023531445918</v>
       </c>
       <c r="G19">
-        <v>1.84</v>
+        <v>2.95</v>
       </c>
       <c r="H19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I19">
-        <v>4.4000000000000004</v>
+        <v>2.57</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="1"/>
@@ -2101,42 +2285,42 @@
       </c>
       <c r="L19" s="1">
         <f t="shared" si="3"/>
-        <v>211.47360057816746</v>
+        <v>336.30134390236617</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.729166666657</v>
+        <v>45759.864583333343</v>
       </c>
       <c r="B20" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Union Berlin</v>
+        <v>Juventus</v>
       </c>
       <c r="C20" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Wolfsburg</v>
+        <v>Lecce</v>
       </c>
       <c r="D20">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.6208374095084607E-2</v>
+        <v>0.59282396495132694</v>
       </c>
       <c r="E20">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.12780911640340681</v>
+        <v>0.21823514965793411</v>
       </c>
       <c r="F20">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.80598250950150996</v>
+        <v>0.18894088539073939</v>
       </c>
       <c r="G20">
-        <v>2.37</v>
+        <v>1.35</v>
       </c>
       <c r="H20">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="1"/>
@@ -2144,46 +2328,46 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.5125534492621791</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="3"/>
-        <v>328.84480567361879</v>
+        <v>14.117600855672917</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.75</v>
+        <v>45759.875</v>
       </c>
       <c r="B21" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Atalanta</v>
+        <v>Leganes</v>
       </c>
       <c r="C21" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lazio</v>
+        <v>Barcelona</v>
       </c>
       <c r="D21">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.233542168154732</v>
+        <v>4.7951828864282721E-4</v>
       </c>
       <c r="E21">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.28698877717827248</v>
+        <v>0.1449451365582341</v>
       </c>
       <c r="F21">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.4794690546669963</v>
+        <v>0.85457534515311973</v>
       </c>
       <c r="G21">
-        <v>1.71</v>
+        <v>9.75</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>1.32</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="1"/>
@@ -2191,75 +2375,87 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="2"/>
-        <v>17.613703418224993</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>99.810376666784379</v>
+        <v>433.03387311322382</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.770833333343</v>
+        <v>45759.878472222219</v>
       </c>
       <c r="B22" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Valladolid</v>
+        <v>Strasbourg</v>
       </c>
       <c r="C22" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Getafe</v>
+        <v>Nice</v>
       </c>
       <c r="D22">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.7977982739713162E-2</v>
+        <v>0.2216591221426398</v>
       </c>
       <c r="E22">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.3057510221595091E-2</v>
+        <v>0.29028408733301281</v>
       </c>
       <c r="F22">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.82896450703869262</v>
-      </c>
-      <c r="J22" s="1" t="str">
+        <v>0.48805679052434853</v>
+      </c>
+      <c r="G22">
+        <v>2.75</v>
+      </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
+      <c r="I22">
+        <v>2.58</v>
+      </c>
+      <c r="J22" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K22" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L22" s="1" t="str">
+        <v>2.6113152107012056</v>
+      </c>
+      <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v/>
+        <v>90.831728118935217</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.864583333343</v>
+        <v>45760.520833333343</v>
       </c>
       <c r="B23" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Roma</v>
+        <v>Atalanta</v>
       </c>
       <c r="C23" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Juventus</v>
+        <v>Bologna</v>
       </c>
       <c r="D23">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.84287837337750937</v>
+        <v>0.13316507608076961</v>
       </c>
       <c r="E23">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>8.9214790052099854E-2</v>
+        <v>0.18363518003875631</v>
       </c>
       <c r="F23">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>6.7906836570391288E-2</v>
+        <v>0.68319974388047244</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2277,27 +2473,27 @@
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.864583333343</v>
+        <v>45760.583333333343</v>
       </c>
       <c r="B24" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Marseille</v>
+        <v>Chelsea</v>
       </c>
       <c r="C24" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Toulouse</v>
+        <v>Ipswich</v>
       </c>
       <c r="D24">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1162325216719954</v>
+        <v>0.96549915485687277</v>
       </c>
       <c r="E24">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.78101530899372384</v>
+        <v>3.0075569216329982E-2</v>
       </c>
       <c r="F24">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.10275216933427921</v>
+        <v>4.4252759267971471E-3</v>
       </c>
       <c r="J24" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2315,27 +2511,27 @@
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45753.875</v>
+        <v>45760.583333333343</v>
       </c>
       <c r="B25" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Villarreal</v>
+        <v>Liverpool</v>
       </c>
       <c r="C25" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Ath Bilbao</v>
+        <v>West Ham</v>
       </c>
       <c r="D25">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.84138552328585381</v>
+        <v>0.95057255957671449</v>
       </c>
       <c r="E25">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1172589813807315</v>
+        <v>4.2928618728116742E-2</v>
       </c>
       <c r="F25">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>4.1355495333416259E-2</v>
+        <v>6.4988216951703511E-3</v>
       </c>
       <c r="J25" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2353,310 +2549,256 @@
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45754.78125</v>
+        <v>45760.583333333343</v>
       </c>
       <c r="B26" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Farense</v>
+        <v>Osasuna</v>
       </c>
       <c r="C26" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Casa Pia</v>
+        <v>Girona</v>
       </c>
       <c r="D26">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.17956118614166719</v>
+        <v>0.34717788214057449</v>
       </c>
       <c r="E26">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.13102266558196021</v>
+        <v>0.26162581337778368</v>
       </c>
       <c r="F26">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.68941614827637343</v>
-      </c>
-      <c r="G26">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="H26">
-        <v>3.15</v>
-      </c>
-      <c r="I26">
-        <v>2.9</v>
-      </c>
-      <c r="J26" s="1">
+        <v>0.39119630448163989</v>
+      </c>
+      <c r="J26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="1">
+        <v/>
+      </c>
+      <c r="K26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="1">
+        <v/>
+      </c>
+      <c r="L26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>259.0891444131405</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45754.833333333343</v>
+        <v>45760.625</v>
       </c>
       <c r="B27" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Leicester</v>
+        <v>Verona</v>
       </c>
       <c r="C27" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Newcastle</v>
+        <v>Genoa</v>
       </c>
       <c r="D27">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.0931810003362419E-2</v>
+        <v>0.28313172005935072</v>
       </c>
       <c r="E27">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.50395008553075948</v>
+        <v>0.49492405762370811</v>
       </c>
       <c r="F27">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.42511810446587872</v>
-      </c>
-      <c r="G27">
-        <v>6.75</v>
-      </c>
-      <c r="H27">
-        <v>4.5</v>
-      </c>
-      <c r="I27">
-        <v>1.55</v>
-      </c>
-      <c r="J27" s="1">
+        <v>0.2219442223169425</v>
+      </c>
+      <c r="J27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="1">
+        <v/>
+      </c>
+      <c r="K27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>114.9909646157295</v>
-      </c>
-      <c r="L27" s="1">
+        <v/>
+      </c>
+      <c r="L27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45754.84375</v>
+        <v>45760.625</v>
       </c>
       <c r="B28" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Rio Ave</v>
+        <v>Fiorentina</v>
       </c>
       <c r="C28" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Boavista</v>
+        <v>Parma</v>
       </c>
       <c r="D28">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.55458988753952543</v>
+        <v>0.72661883971149377</v>
       </c>
       <c r="E28">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29426119112388671</v>
+        <v>0.2171030325217837</v>
       </c>
       <c r="F28">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.15114892133658731</v>
-      </c>
-      <c r="G28">
-        <v>1.87</v>
-      </c>
-      <c r="H28">
-        <v>3.45</v>
-      </c>
-      <c r="I28">
-        <v>4.3</v>
-      </c>
-      <c r="J28" s="1">
+        <v>5.6278127766723751E-2</v>
+      </c>
+      <c r="J28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>32.562445403539336</v>
-      </c>
-      <c r="K28" s="1">
+        <v/>
+      </c>
+      <c r="K28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>2.5691653994860557</v>
-      </c>
-      <c r="L28" s="1">
+        <v/>
+      </c>
+      <c r="L28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45754.864583333343</v>
+        <v>45760.625</v>
       </c>
       <c r="B29" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sp Lisbon</v>
+        <v>St Etienne</v>
       </c>
       <c r="C29" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sp Braga</v>
+        <v>Brest</v>
       </c>
       <c r="D29">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.95117621531742458</v>
+        <v>6.1188093953216428E-2</v>
       </c>
       <c r="E29">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>4.482461243198025E-2</v>
+        <v>0.17470219231536091</v>
       </c>
       <c r="F29">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>3.999172250593896E-3</v>
-      </c>
-      <c r="G29">
-        <v>1.4</v>
-      </c>
-      <c r="H29">
-        <v>5.25</v>
-      </c>
-      <c r="I29">
-        <v>9.25</v>
-      </c>
-      <c r="J29" s="1">
+        <v>0.76410971373142433</v>
+      </c>
+      <c r="J29" s="1" t="str">
         <f t="shared" ref="J29:J33" si="4">IF(G29=0,"",IF(D29&gt;=1/G29,(D29-1/G29)*10000/(G29-1)/7,0))</f>
-        <v>846.03750368467968</v>
-      </c>
-      <c r="K29" s="1">
+        <v/>
+      </c>
+      <c r="K29" s="1" t="str">
         <f t="shared" ref="K29:K33" si="5">IF(H29=0,"",IF(E29&gt;=1/H29,(E29-1/H29)*10000/(H29-1)/7,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L29" s="1">
+        <v/>
+      </c>
+      <c r="L29" s="1" t="str">
         <f t="shared" ref="L29:L33" si="6">IF(I29=0,"",IF(F29&gt;=1/I29,(F29-1/I29)*10000/(I29-1)/7,0))</f>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45754.864583333343</v>
+        <v>45760.645833333343</v>
       </c>
       <c r="B30" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Bologna</v>
+        <v>Stuttgart</v>
       </c>
       <c r="C30" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Napoli</v>
+        <v>Werder Bremen</v>
       </c>
       <c r="D30">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.9040136949408677</v>
+        <v>2.2725294276553999E-2</v>
       </c>
       <c r="E30">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>7.9818557098727871E-2</v>
+        <v>3.3334365157423267E-2</v>
       </c>
       <c r="F30">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>1.6167747960406171E-2</v>
-      </c>
-      <c r="G30">
-        <v>3.1</v>
-      </c>
-      <c r="H30">
-        <v>3.1</v>
-      </c>
-      <c r="I30">
-        <v>2.7</v>
-      </c>
-      <c r="J30" s="1">
+        <v>0.94394034056602183</v>
+      </c>
+      <c r="J30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>395.53268692488257</v>
-      </c>
-      <c r="K30" s="1">
+        <v/>
+      </c>
+      <c r="K30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="1">
+        <v/>
+      </c>
+      <c r="L30" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45754.875</v>
+        <v>45760.677083333343</v>
       </c>
       <c r="B31" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Leganes</v>
+        <v>Alaves</v>
       </c>
       <c r="C31" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Osasuna</v>
+        <v>Real Madrid</v>
       </c>
       <c r="D31">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.26047525863698823</v>
+        <v>9.9743470733222525E-2</v>
       </c>
       <c r="E31">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.56216750486328959</v>
+        <v>0.10709843195513449</v>
       </c>
       <c r="F31">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.1773572364997206</v>
-      </c>
-      <c r="G31">
-        <v>2.8</v>
-      </c>
-      <c r="H31">
-        <v>3.1</v>
-      </c>
-      <c r="I31">
-        <v>3</v>
-      </c>
-      <c r="J31" s="1">
+        <v>0.79315809731164355</v>
+      </c>
+      <c r="J31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="1">
+        <v/>
+      </c>
+      <c r="K31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>162.98425830067978</v>
-      </c>
-      <c r="L31" s="1">
+        <v/>
+      </c>
+      <c r="L31" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45758.854166666657</v>
+        <v>45760.6875</v>
       </c>
       <c r="B32" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Wolfsburg</v>
+        <v>Newcastle</v>
       </c>
       <c r="C32" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>RB Leipzig</v>
+        <v>Man United</v>
       </c>
       <c r="D32">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>2.5247839695903801E-2</v>
+        <v>0.1103822677815012</v>
       </c>
       <c r="E32">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.29045978019965762</v>
+        <v>0.3150932489198735</v>
       </c>
       <c r="F32">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.68429238010443882</v>
+        <v>0.57452448329862682</v>
       </c>
       <c r="J32" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2674,27 +2816,27 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45758.864583333343</v>
+        <v>45760.71875</v>
       </c>
       <c r="B33" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Udinese</v>
+        <v>Angers</v>
       </c>
       <c r="C33" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Milan</v>
+        <v>Montpellier</v>
       </c>
       <c r="D33">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.34708327680070977</v>
+        <v>0.1022163827735012</v>
       </c>
       <c r="E33">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.2236121214241365</v>
+        <v>0.67167710812065806</v>
       </c>
       <c r="F33">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.42930460177515312</v>
+        <v>0.2261065091058376</v>
       </c>
       <c r="J33" s="1" t="str">
         <f t="shared" si="4"/>
@@ -2713,27 +2855,27 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45758.864583333343</v>
+        <v>45760.71875</v>
       </c>
       <c r="B34" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Lens</v>
+        <v>Le Havre</v>
       </c>
       <c r="C34" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Reims</v>
+        <v>Rennes</v>
       </c>
       <c r="D34">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.35070665839566839</v>
+        <v>4.2083196637145159E-3</v>
       </c>
       <c r="E34">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.33068035910412469</v>
+        <v>5.552189449588172E-2</v>
       </c>
       <c r="F34">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.31861298250020659</v>
+        <v>0.94026978584040555</v>
       </c>
       <c r="J34" s="1" t="str">
         <f t="shared" ref="J34:J59" si="7">IF(G34=0,"",IF(D34&gt;=1/G34,(D34-1/G34)*10000/(G34-1)/7,0))</f>
@@ -2751,27 +2893,27 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>45758.875</v>
+        <v>45760.729166666657</v>
       </c>
       <c r="B35" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Valencia</v>
+        <v>Ein Frankfurt</v>
       </c>
       <c r="C35" t="str">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>Sevilla</v>
+        <v>Heidenheim</v>
       </c>
       <c r="D35">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.46645214221628678</v>
+        <v>0.21800284801446859</v>
       </c>
       <c r="E35">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.21711169747435541</v>
+        <v>0.19517189927192971</v>
       </c>
       <c r="F35">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0.31643616030935751</v>
+        <v>0.58682525271359998</v>
       </c>
       <c r="J35" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2789,27 +2931,27 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45760.75</v>
+      </c>
+      <c r="B36" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Como</v>
+      </c>
+      <c r="C36" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Torino</v>
       </c>
       <c r="D36">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.2759558418493942</v>
       </c>
       <c r="E36">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.17627296318844299</v>
       </c>
       <c r="F36">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.54777119496216375</v>
       </c>
       <c r="J36" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2827,27 +2969,27 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45760.770833333343</v>
+      </c>
+      <c r="B37" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Betis</v>
+      </c>
+      <c r="C37" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Villarreal</v>
       </c>
       <c r="D37">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.55790500099020324</v>
       </c>
       <c r="E37">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.1148106372592663</v>
       </c>
       <c r="F37">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.32728436175052972</v>
       </c>
       <c r="J37" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2865,27 +3007,27 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45760.864583333343</v>
+      </c>
+      <c r="B38" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Lazio</v>
+      </c>
+      <c r="C38" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Roma</v>
       </c>
       <c r="D38">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>3.192560751745491E-3</v>
       </c>
       <c r="E38">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>5.2250092696111257E-2</v>
       </c>
       <c r="F38">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.94455734655214252</v>
       </c>
       <c r="J38" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2903,27 +3045,27 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45760.864583333343</v>
+      </c>
+      <c r="B39" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Auxerre</v>
+      </c>
+      <c r="C39" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Lyon</v>
       </c>
       <c r="D39">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.7983122897635268E-2</v>
       </c>
       <c r="E39">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.1941111288127651</v>
       </c>
       <c r="F39">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.757905748289601</v>
       </c>
       <c r="J39" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2941,27 +3083,27 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B40">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45760.875</v>
+      </c>
+      <c r="B40" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Ath Bilbao</v>
+      </c>
+      <c r="C40" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Vallecano</v>
       </c>
       <c r="D40">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.86859289756446512</v>
       </c>
       <c r="E40">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.1178578840802816</v>
       </c>
       <c r="F40">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>1.354921835525289E-2</v>
       </c>
       <c r="J40" s="1" t="str">
         <f t="shared" si="7"/>
@@ -2979,27 +3121,27 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B41">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45761.833333333343</v>
+      </c>
+      <c r="B41" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Bournemouth</v>
+      </c>
+      <c r="C41" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Fulham</v>
       </c>
       <c r="D41">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.2503301029603674</v>
       </c>
       <c r="E41">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.15574900453949109</v>
       </c>
       <c r="F41">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.59392089250014068</v>
       </c>
       <c r="J41" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3017,27 +3159,27 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B42">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45761.864583333343</v>
+      </c>
+      <c r="B42" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Napoli</v>
+      </c>
+      <c r="C42" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Empoli</v>
       </c>
       <c r="D42">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.86756156571734233</v>
       </c>
       <c r="E42">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>9.008033593651972E-2</v>
       </c>
       <c r="F42">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>4.2358098346139669E-2</v>
       </c>
       <c r="J42" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3055,27 +3197,27 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="B43">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>45761.875</v>
+      </c>
+      <c r="B43" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Ath Madrid</v>
+      </c>
+      <c r="C43" t="str">
+        <f>[1]Sheet1!$A$1:$I$59</f>
+        <v>Valladolid</v>
       </c>
       <c r="D43">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.54506411165166835</v>
       </c>
       <c r="E43">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.30064657538011452</v>
       </c>
       <c r="F43">
         <f>[1]Sheet1!$A$1:$I$59</f>
-        <v>0</v>
+        <v>0.1542893129682163</v>
       </c>
       <c r="J43" s="1" t="str">
         <f t="shared" si="7"/>
